--- a/sriramModel-nelson-atypical-patientID_15-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_15-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.704264057452967</v>
+        <v>2.329653850915752</v>
       </c>
       <c r="C2">
-        <v>2.058724644588661</v>
+        <v>2.021448555093533</v>
       </c>
       <c r="D2">
-        <v>2.105457238773406</v>
+        <v>2.007872496473542</v>
       </c>
       <c r="E2">
-        <v>2.09808313647678</v>
+        <v>2.30505573981732</v>
       </c>
       <c r="F2">
-        <v>2.247428707377481</v>
+        <v>2.082772816063442</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.393004273965259</v>
+        <v>2.652680131157831</v>
       </c>
       <c r="C3">
-        <v>2.116377743459783</v>
+        <v>2.043025672627393</v>
       </c>
       <c r="D3">
-        <v>2.207360093147901</v>
+        <v>2.015770443696812</v>
       </c>
       <c r="E3">
-        <v>2.193187891198673</v>
+        <v>2.598198814933026</v>
       </c>
       <c r="F3">
-        <v>2.490768342695355</v>
+        <v>2.163932430965303</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.070510479690532</v>
+        <v>2.965833581051357</v>
       </c>
       <c r="C4">
-        <v>2.17302807963787</v>
+        <v>2.064735704274181</v>
       </c>
       <c r="D4">
-        <v>2.305905630831716</v>
+        <v>2.023696611532774</v>
       </c>
       <c r="E4">
-        <v>2.285477059863553</v>
+        <v>2.879941338457614</v>
       </c>
       <c r="F4">
-        <v>2.730076731524131</v>
+        <v>2.243581198740165</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.739560764692907</v>
+        <v>3.267990476515819</v>
       </c>
       <c r="C5">
-        <v>2.228742531728824</v>
+        <v>2.086583003741974</v>
       </c>
       <c r="D5">
-        <v>2.401278511245387</v>
+        <v>2.031653803756563</v>
       </c>
       <c r="E5">
-        <v>2.375105686900735</v>
+        <v>3.150783503589275</v>
       </c>
       <c r="F5">
-        <v>2.965412940364527</v>
+        <v>2.32181839464428</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.396335267934802</v>
+        <v>3.559123223319004</v>
       </c>
       <c r="C6">
-        <v>2.28358617668221</v>
+        <v>2.108571942666813</v>
       </c>
       <c r="D6">
-        <v>2.493652087502807</v>
+        <v>2.039644874201436</v>
       </c>
       <c r="E6">
-        <v>2.462222064374496</v>
+        <v>3.411218579335421</v>
       </c>
       <c r="F6">
-        <v>3.196836148429093</v>
+        <v>2.398740529729777</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.038859114467038</v>
+        <v>3.83952555415861</v>
       </c>
       <c r="C7">
-        <v>2.337622316019683</v>
+        <v>2.130706908403171</v>
       </c>
       <c r="D7">
-        <v>2.583189417077559</v>
+        <v>2.047672729488075</v>
       </c>
       <c r="E7">
-        <v>2.546968679845009</v>
+        <v>3.661737861758025</v>
       </c>
       <c r="F7">
-        <v>3.424404771148938</v>
+        <v>2.474441648304075</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.66697304719859</v>
+        <v>4.109572841264328</v>
       </c>
       <c r="C8">
-        <v>2.39091251180459</v>
+        <v>2.152992301534017</v>
       </c>
       <c r="D8">
-        <v>2.670044059967402</v>
+        <v>2.055740329769623</v>
       </c>
       <c r="E8">
-        <v>2.629483061882356</v>
+        <v>3.902835091846817</v>
       </c>
       <c r="F8">
-        <v>3.648176138650698</v>
+        <v>2.54901375265888</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.280932118956025</v>
+        <v>4.369653956382777</v>
       </c>
       <c r="C9">
-        <v>2.443516627756185</v>
+        <v>2.17543253228007</v>
       </c>
       <c r="D9">
-        <v>2.754360908893373</v>
+        <v>2.063850690905721</v>
       </c>
       <c r="E9">
-        <v>2.709898589602786</v>
+        <v>4.135009801907288</v>
       </c>
       <c r="F9">
-        <v>3.868206635214297</v>
+        <v>2.622546979662324</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.881068572559833</v>
+        <v>4.620151192432053</v>
       </c>
       <c r="C10">
-        <v>2.495492881608853</v>
+        <v>2.198032017546743</v>
       </c>
       <c r="D10">
-        <v>2.836277042391024</v>
+        <v>2.072006886920138</v>
       </c>
       <c r="E10">
-        <v>2.788345091214678</v>
+        <v>4.358769043465339</v>
       </c>
       <c r="F10">
-        <v>4.084551985437175</v>
+        <v>2.695129817476542</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.467724258184271</v>
+        <v>4.861434330616519</v>
       </c>
       <c r="C11">
-        <v>2.546897895335236</v>
+        <v>2.220795178080991</v>
       </c>
       <c r="D11">
-        <v>2.915922463777016</v>
+        <v>2.080212052146704</v>
       </c>
       <c r="E11">
-        <v>2.864949782147716</v>
+        <v>4.574627040442558</v>
       </c>
       <c r="F11">
-        <v>4.297267482384862</v>
+        <v>2.766849365096153</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.041236143487721</v>
+        <v>5.093859097167112</v>
       </c>
       <c r="C12">
-        <v>2.597786746817767</v>
+        <v>2.243726435387429</v>
       </c>
       <c r="D12">
-        <v>2.993420846977132</v>
+        <v>2.088469382983206</v>
       </c>
       <c r="E12">
-        <v>2.939838127417833</v>
+        <v>4.78310234109632</v>
       </c>
       <c r="F12">
-        <v>4.506408110636465</v>
+        <v>2.837791540734107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.601932804798956</v>
+        <v>5.317767040209945</v>
       </c>
       <c r="C13">
-        <v>2.64821302366077</v>
+        <v>2.266830208109335</v>
       </c>
       <c r="D13">
-        <v>3.068890285873739</v>
+        <v>2.09678213993999</v>
       </c>
       <c r="E13">
-        <v>3.013134264008499</v>
+        <v>4.984712389362454</v>
       </c>
       <c r="F13">
-        <v>4.712028586364219</v>
+        <v>2.908041243250137</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.15013377265518</v>
+        <v>5.533485876468797</v>
       </c>
       <c r="C14">
-        <v>2.698228875167278</v>
+        <v>2.290110907951103</v>
       </c>
       <c r="D14">
-        <v>3.14244403532939</v>
+        <v>2.105153650405954</v>
       </c>
       <c r="E14">
-        <v>3.084961614046406</v>
+        <v>5.179965703570586</v>
       </c>
       <c r="F14">
-        <v>4.914183347816826</v>
+        <v>2.977682484703933</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.68614956581407</v>
+        <v>5.741329986012191</v>
       </c>
       <c r="C15">
-        <v>2.747885062037487</v>
+        <v>2.313572935682005</v>
       </c>
       <c r="D15">
-        <v>3.214191252641339</v>
+        <v>2.113587309019219</v>
       </c>
       <c r="E15">
-        <v>3.155443573569111</v>
+        <v>5.369352172093198</v>
       </c>
       <c r="F15">
-        <v>5.112926520170181</v>
+        <v>3.046798498566139</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.21028193415744</v>
+        <v>5.941600948329818</v>
       </c>
       <c r="C16">
-        <v>2.797231002383016</v>
+        <v>2.337220677185964</v>
       </c>
       <c r="D16">
-        <v>3.28423773100656</v>
+        <v>2.122086582193385</v>
       </c>
       <c r="E16">
-        <v>3.224704012814601</v>
+        <v>5.553332387604357</v>
       </c>
       <c r="F16">
-        <v>5.308311869495506</v>
+        <v>3.115471817734928</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.72282414616956</v>
+        <v>6.134588078426876</v>
       </c>
       <c r="C17">
-        <v>2.846314811175336</v>
+        <v>2.361058499165336</v>
       </c>
       <c r="D17">
-        <v>3.352686635515713</v>
+        <v>2.130655005524973</v>
       </c>
       <c r="E17">
-        <v>3.292867678509552</v>
+        <v>5.732327150199082</v>
       </c>
       <c r="F17">
-        <v>5.500392754145239</v>
+        <v>3.183784321721021</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.224061279178</v>
+        <v>6.320568948512432</v>
       </c>
       <c r="C18">
-        <v>2.895183332257467</v>
+        <v>2.385090744301228</v>
       </c>
       <c r="D18">
-        <v>3.419639244944605</v>
+        <v>2.139296190748906</v>
       </c>
       <c r="E18">
-        <v>3.360060569058788</v>
+        <v>5.906708391045234</v>
       </c>
       <c r="F18">
-        <v>5.689222077883354</v>
+        <v>3.25181726669584</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.71427049957159</v>
+        <v>6.499809890042338</v>
       </c>
       <c r="C19">
-        <v>2.943882162246194</v>
+        <v>2.409321726807895</v>
       </c>
       <c r="D19">
-        <v>3.485195699654839</v>
+        <v>2.148013823865976</v>
       </c>
       <c r="E19">
-        <v>3.426410217024251</v>
+        <v>6.076792634691089</v>
       </c>
       <c r="F19">
-        <v>5.8748522468544</v>
+        <v>3.319651222552247</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.19372132881532</v>
+        <v>6.672566474838414</v>
       </c>
       <c r="C20">
-        <v>2.992455665095663</v>
+        <v>2.433755727149596</v>
       </c>
       <c r="D20">
-        <v>3.54945575428435</v>
+        <v>2.156811668758256</v>
       </c>
       <c r="E20">
-        <v>3.492045833613121</v>
+        <v>6.242837802851136</v>
       </c>
       <c r="F20">
-        <v>6.057335131296966</v>
+        <v>3.387366000940971</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.66267589581119</v>
+        <v>6.839083974778097</v>
       </c>
       <c r="C21">
-        <v>3.040946975920831</v>
+        <v>2.458396986293503</v>
       </c>
       <c r="D21">
-        <v>3.612519530695987</v>
+        <v>2.165693566968179</v>
       </c>
       <c r="E21">
-        <v>3.557098317694299</v>
+        <v>6.405043688728211</v>
       </c>
       <c r="F21">
-        <v>6.2367220320992</v>
+        <v>3.455040533574766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.12138917684671</v>
+        <v>6.999597801220496</v>
       </c>
       <c r="C22">
-        <v>3.089397992859905</v>
+        <v>2.483249701615208</v>
       </c>
       <c r="D22">
-        <v>3.67448826767522</v>
+        <v>2.174663439990459</v>
       </c>
       <c r="E22">
-        <v>3.621700109645436</v>
+        <v>6.563555904053304</v>
       </c>
       <c r="F22">
-        <v>6.413063652152309</v>
+        <v>3.522752686211446</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.57010922370988</v>
+        <v>7.154333924541798</v>
       </c>
       <c r="C23">
-        <v>3.137849356043591</v>
+        <v>2.508318019187191</v>
       </c>
       <c r="D23">
-        <v>3.735465055832562</v>
+        <v>2.183725288504069</v>
       </c>
       <c r="E23">
-        <v>3.685984837686956</v>
+        <v>6.71847265298738</v>
       </c>
       <c r="F23">
-        <v>6.586410072294048</v>
+        <v>3.590579028031269</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.00907738147332</v>
+        <v>7.303509274837592</v>
       </c>
       <c r="C24">
-        <v>3.186340412738269</v>
+        <v>2.533606029505925</v>
       </c>
       <c r="D24">
-        <v>3.795555550208715</v>
+        <v>2.192883193888145</v>
       </c>
       <c r="E24">
-        <v>3.750086729412531</v>
+        <v>6.869853354867871</v>
       </c>
       <c r="F24">
-        <v>6.756810731159571</v>
+        <v>3.658594534616575</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.43852849675347</v>
+        <v>7.447332125399284</v>
       </c>
       <c r="C25">
-        <v>3.234909169647615</v>
+        <v>2.559117760482971</v>
       </c>
       <c r="D25">
-        <v>3.854868643521557</v>
+        <v>2.202141318292965</v>
       </c>
       <c r="E25">
-        <v>3.814139751847371</v>
+        <v>7.017728012665111</v>
       </c>
       <c r="F25">
-        <v>6.924314408834086</v>
+        <v>3.726872221691786</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>15.85869111720076</v>
+        <v>7.586002457797071</v>
       </c>
       <c r="C26">
-        <v>3.283592229645231</v>
+        <v>2.584857171422938</v>
       </c>
       <c r="D26">
-        <v>3.913517076946087</v>
+        <v>2.211503903907729</v>
       </c>
       <c r="E26">
-        <v>3.878276428070032</v>
+        <v>7.162106558305941</v>
       </c>
       <c r="F26">
-        <v>7.088969213845455</v>
+        <v>3.795482743002791</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16.26978768293209</v>
+        <v>7.719712310988672</v>
       </c>
       <c r="C27">
-        <v>3.332424714868802</v>
+        <v>2.610828147044093</v>
       </c>
       <c r="D27">
-        <v>3.971617956825751</v>
+        <v>2.220975273594628</v>
       </c>
       <c r="E27">
-        <v>3.94262631791111</v>
+        <v>7.302987215199393</v>
       </c>
       <c r="F27">
-        <v>7.250822572774331</v>
+        <v>3.864493917264018</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>16.67203471112512</v>
+        <v>7.848646115632643</v>
       </c>
       <c r="C28">
-        <v>3.381440176546138</v>
+        <v>2.63703449021481</v>
       </c>
       <c r="D28">
-        <v>4.029293129437604</v>
+        <v>2.23055982872695</v>
       </c>
       <c r="E28">
-        <v>4.007314137250067</v>
+        <v>7.440363465248589</v>
       </c>
       <c r="F28">
-        <v>7.409921222733914</v>
+        <v>3.933970190143557</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>17.06564297288841</v>
+        <v>7.972981013101184</v>
       </c>
       <c r="C29">
-        <v>3.430670491900144</v>
+        <v>2.663479915767275</v>
       </c>
       <c r="D29">
-        <v>4.08666939148444</v>
+        <v>2.24026204803515</v>
       </c>
       <c r="E29">
-        <v>4.072457514027237</v>
+        <v>7.574229436062557</v>
       </c>
       <c r="F29">
-        <v>7.566311206344873</v>
+        <v>4.003972087186197</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>17.45081766375919</v>
+        <v>8.092887159806967</v>
       </c>
       <c r="C30">
-        <v>3.480145749154542</v>
+        <v>2.690168043539684</v>
       </c>
       <c r="D30">
-        <v>4.143878450797902</v>
+        <v>2.250086486135664</v>
       </c>
       <c r="E30">
-        <v>4.138164454364679</v>
+        <v>7.704583857075408</v>
       </c>
       <c r="F30">
-        <v>7.720037868414152</v>
+        <v>4.074555621141021</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17.82775856837717</v>
+        <v>8.208528018283427</v>
       </c>
       <c r="C31">
-        <v>3.529894124251744</v>
+        <v>2.717102391212394</v>
       </c>
       <c r="D31">
-        <v>4.201056395412609</v>
+        <v>2.260037768618001</v>
       </c>
       <c r="E31">
-        <v>4.204530589679644</v>
+        <v>7.831432555676106</v>
       </c>
       <c r="F31">
-        <v>7.871145854350974</v>
+        <v>4.14577166828748</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>18.19666021941116</v>
+        <v>8.320060637487465</v>
       </c>
       <c r="C32">
-        <v>3.579941749810118</v>
+        <v>2.744286367817515</v>
       </c>
       <c r="D32">
-        <v>4.258342826196436</v>
+        <v>2.27012059145095</v>
       </c>
       <c r="E32">
-        <v>4.271636358772708</v>
+        <v>7.954789843033447</v>
       </c>
       <c r="F32">
-        <v>8.019679110229017</v>
+        <v>4.217665388708483</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18.55771205100265</v>
+        <v>8.427635919894728</v>
       </c>
       <c r="C33">
-        <v>3.630312580385548</v>
+        <v>2.771723266276087</v>
       </c>
       <c r="D33">
-        <v>4.315879443233705</v>
+        <v>2.280339713734524</v>
       </c>
       <c r="E33">
-        <v>4.339544334702702</v>
+        <v>8.07467905225379</v>
       </c>
       <c r="F33">
-        <v>8.165680884308832</v>
+        <v>4.290275661151393</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>18.91109854668701</v>
+        <v>8.531398874814732</v>
       </c>
       <c r="C34">
-        <v>3.68102825715071</v>
+        <v>2.799416256691718</v>
       </c>
       <c r="D34">
-        <v>4.373807842012925</v>
+        <v>2.29069995404778</v>
       </c>
       <c r="E34">
-        <v>4.408296922586125</v>
+        <v>8.191132399926309</v>
       </c>
       <c r="F34">
-        <v>8.30919372973473</v>
+        <v>4.363634557390219</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>19.25699938256863</v>
+        <v>8.631488860303978</v>
       </c>
       <c r="C35">
-        <v>3.732107975983313</v>
+        <v>2.827368379286451</v>
       </c>
       <c r="D35">
-        <v>4.432266469437466</v>
+        <v>2.301206184970651</v>
       </c>
       <c r="E35">
-        <v>4.477914708685871</v>
+        <v>8.304190462755626</v>
       </c>
       <c r="F35">
-        <v>8.450259508073845</v>
+        <v>4.437766934970714</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>19.59558956597808</v>
+        <v>8.728039816962051</v>
       </c>
       <c r="C36">
-        <v>3.783568362847752</v>
+        <v>2.855582537483925</v>
       </c>
       <c r="D36">
-        <v>4.491386727526177</v>
+        <v>2.311863322984296</v>
       </c>
       <c r="E36">
-        <v>4.548395637040493</v>
+        <v>8.413901359581109</v>
       </c>
       <c r="F36">
-        <v>8.58891939331007</v>
+        <v>4.512690057075535</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>19.92703956924878</v>
+        <v>8.821180491997168</v>
       </c>
       <c r="C37">
-        <v>3.835423361994404</v>
+        <v>2.88406149107344</v>
       </c>
       <c r="D37">
-        <v>4.55128823081273</v>
+        <v>2.322676324697592</v>
       </c>
       <c r="E37">
-        <v>4.61971522268018</v>
+        <v>8.520319813534121</v>
       </c>
       <c r="F37">
-        <v>8.725213877763963</v>
+        <v>4.588413456714783</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20.25151545873169</v>
+        <v>8.911034652480732</v>
       </c>
       <c r="C38">
-        <v>3.887684140658521</v>
+        <v>2.912807849458539</v>
       </c>
       <c r="D38">
-        <v>4.612073432515401</v>
+        <v>2.333650172847562</v>
       </c>
       <c r="E38">
-        <v>4.691827854338931</v>
+        <v>8.6235061791826</v>
       </c>
       <c r="F38">
-        <v>8.859182778168243</v>
+        <v>4.664938861244236</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>20.56917902099721</v>
+        <v>8.997721288848789</v>
       </c>
       <c r="C39">
-        <v>3.940359014811694</v>
+        <v>2.94182406533848</v>
       </c>
       <c r="D39">
-        <v>4.673821906092715</v>
+        <v>2.344789868146642</v>
       </c>
       <c r="E39">
-        <v>4.76466903585295</v>
+        <v>8.723525482607453</v>
       </c>
       <c r="F39">
-        <v>8.990865242132029</v>
+        <v>4.742260293856038</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>20.88018788493441</v>
+        <v>9.081354809742992</v>
       </c>
       <c r="C40">
-        <v>3.993453400013022</v>
+        <v>2.971112427838396</v>
       </c>
       <c r="D40">
-        <v>4.736584931383794</v>
+        <v>2.356100417974919</v>
       </c>
       <c r="E40">
-        <v>4.838158494521561</v>
+        <v>8.820446486842471</v>
       </c>
       <c r="F40">
-        <v>9.120299755190439</v>
+        <v>4.820364340116745</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>21.18469563851984</v>
+        <v>9.162045225558183</v>
       </c>
       <c r="C41">
-        <v>4.046969790829662</v>
+        <v>3.000675057054167</v>
       </c>
       <c r="D41">
-        <v>4.800381089189816</v>
+        <v>2.367586818928062</v>
       </c>
       <c r="E41">
-        <v>4.912203805315216</v>
+        <v>8.914340832138951</v>
       </c>
       <c r="F41">
-        <v>9.247524148568758</v>
+        <v>4.899230568938606</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>21.48285194226617</v>
+        <v>9.239898334176312</v>
       </c>
       <c r="C42">
-        <v>4.100907771529204</v>
+        <v>3.030513897700814</v>
       </c>
       <c r="D42">
-        <v>4.86519364338465</v>
+        <v>2.379254048310834</v>
       </c>
       <c r="E42">
-        <v>4.986704211372769</v>
+        <v>9.005282297463992</v>
       </c>
       <c r="F42">
-        <v>9.372575606598557</v>
+        <v>4.978832098481329</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>21.77480263947863</v>
+        <v>9.315015877037292</v>
       </c>
       <c r="C43">
-        <v>4.155264059797045</v>
+        <v>3.060630713631686</v>
       </c>
       <c r="D43">
-        <v>4.930970251888708</v>
+        <v>2.391107041375878</v>
       </c>
       <c r="E43">
-        <v>5.061554390521792</v>
+        <v>9.093346140038044</v>
       </c>
       <c r="F43">
-        <v>9.495490674831817</v>
+        <v>5.059136285649772</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22.06068986359104</v>
+        <v>9.387495741351454</v>
       </c>
       <c r="C44">
-        <v>4.210032584756448</v>
+        <v>3.091027083223036</v>
       </c>
       <c r="D44">
-        <v>4.997625328461996</v>
+        <v>2.403150677261848</v>
       </c>
       <c r="E44">
-        <v>5.136647856585265</v>
+        <v>9.178608518750506</v>
       </c>
       <c r="F44">
-        <v>9.616305268436635</v>
+        <v>5.140105515147392</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22.34065214170234</v>
+        <v>9.457432069000774</v>
       </c>
       <c r="C45">
-        <v>4.265204595907598</v>
+        <v>3.121704393383148</v>
       </c>
       <c r="D45">
-        <v>5.065044959586852</v>
+        <v>2.415389760036711</v>
       </c>
       <c r="E45">
-        <v>5.211879877934178</v>
+        <v>9.261145992679237</v>
       </c>
       <c r="F45">
-        <v>9.735054680311501</v>
+        <v>5.221698047976036</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22.61482449558066</v>
+        <v>9.524915443005252</v>
       </c>
       <c r="C46">
-        <v>4.320768806426655</v>
+        <v>3.15266383640183</v>
       </c>
       <c r="D46">
-        <v>5.13309367422118</v>
+        <v>2.427828993152479</v>
       </c>
       <c r="E46">
-        <v>5.287149775142413</v>
+        <v>9.341035093474495</v>
       </c>
       <c r="F46">
-        <v>9.851773591274663</v>
+        <v>5.303868903975798</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22.88333853835444</v>
+        <v>9.590033006295885</v>
       </c>
       <c r="C47">
-        <v>4.376711565090432</v>
+        <v>3.183906405413552</v>
       </c>
       <c r="D47">
-        <v>5.201622208376002</v>
+        <v>2.440472964451746</v>
       </c>
       <c r="E47">
-        <v>5.36236260556835</v>
+        <v>9.41835196595558</v>
       </c>
       <c r="F47">
-        <v>9.966496077209431</v>
+        <v>5.386570737436863</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>23.1463225688508</v>
+        <v>9.652868599567284</v>
       </c>
       <c r="C48">
-        <v>4.433017052003073</v>
+        <v>3.215432890376604</v>
       </c>
       <c r="D48">
-        <v>5.270475260357144</v>
+        <v>2.453326114690825</v>
       </c>
       <c r="E48">
-        <v>5.437430305880731</v>
+        <v>9.493172071392847</v>
       </c>
       <c r="F48">
-        <v>10.07925562028262</v>
+        <v>5.469754674871736</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>23.40390166319324</v>
+        <v>9.713502914429034</v>
       </c>
       <c r="C49">
-        <v>4.489667495726841</v>
+        <v>3.247243876580724</v>
       </c>
       <c r="D49">
-        <v>5.339498472772214</v>
+        <v>2.466392717069584</v>
       </c>
       <c r="E49">
-        <v>5.512272307759308</v>
+        <v>9.565569937259301</v>
       </c>
       <c r="F49">
-        <v>10.19008511598245</v>
+        <v>5.553371105231219</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>23.65619776359621</v>
+        <v>9.772013599593155</v>
       </c>
       <c r="C50">
-        <v>4.546643406167283</v>
+        <v>3.279339740332178</v>
       </c>
       <c r="D50">
-        <v>5.408544044829767</v>
+        <v>2.479676850337735</v>
       </c>
       <c r="E50">
-        <v>5.586815768333476</v>
+        <v>9.635618961684056</v>
       </c>
       <c r="F50">
-        <v>10.29901688378492</v>
+        <v>5.637370375610119</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>23.90332976458618</v>
+        <v>9.828475392064798</v>
       </c>
       <c r="C51">
-        <v>4.603923817874571</v>
+        <v>3.311720648473994</v>
       </c>
       <c r="D51">
-        <v>5.477474755132437</v>
+        <v>2.493182367610595</v>
       </c>
       <c r="E51">
-        <v>5.660995508904571</v>
+        <v>9.703391248728074</v>
       </c>
       <c r="F51">
-        <v>10.40608267503397</v>
+        <v>5.721703407872686</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>24.14541359700894</v>
+        <v>9.882960236957583</v>
       </c>
       <c r="C52">
-        <v>4.661486538292956</v>
+        <v>3.344386557099427</v>
       </c>
       <c r="D52">
-        <v>5.54616645119171</v>
+        <v>2.506912873986177</v>
       </c>
       <c r="E52">
-        <v>5.734753717293749</v>
+        <v>9.768957477975158</v>
       </c>
       <c r="F52">
-        <v>10.51131368256591</v>
+        <v>5.806322186757219</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>24.38256278921815</v>
+        <v>9.935537381613925</v>
       </c>
       <c r="C53">
-        <v>4.719308388029025</v>
+        <v>3.377337208967846</v>
       </c>
       <c r="D53">
-        <v>5.614509281764822</v>
+        <v>2.520871691124572</v>
       </c>
       <c r="E53">
-        <v>5.808039526008585</v>
+        <v>9.832386804030511</v>
       </c>
       <c r="F53">
-        <v>10.61474054965328</v>
+        <v>5.891180195074635</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>24.61488677495435</v>
+        <v>9.986273505579174</v>
       </c>
       <c r="C54">
-        <v>4.77736550999368</v>
+        <v>3.410572136132802</v>
       </c>
       <c r="D54">
-        <v>5.682407712315072</v>
+        <v>2.535061831961229</v>
       </c>
       <c r="E54">
-        <v>5.880808553312507</v>
+        <v>9.893746780579256</v>
       </c>
       <c r="F54">
-        <v>10.71639337910319</v>
+        <v>5.976232733862456</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>24.84249305326094</v>
+        <v>10.03523279942021</v>
       </c>
       <c r="C55">
-        <v>4.835633553939376</v>
+        <v>3.444090658069765</v>
       </c>
       <c r="D55">
-        <v>5.749780083672358</v>
+        <v>2.549485969388928</v>
       </c>
       <c r="E55">
-        <v>5.953022384317038</v>
+        <v>9.953103305057601</v>
       </c>
       <c r="F55">
-        <v>10.81630174236057</v>
+        <v>6.061437152353151</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>25.06548694122473</v>
+        <v>10.08247707295567</v>
       </c>
       <c r="C56">
-        <v>4.894087937340325</v>
+        <v>3.477891883828689</v>
       </c>
       <c r="D56">
-        <v>5.816557615267516</v>
+        <v>2.564146406763451</v>
       </c>
       <c r="E56">
-        <v>6.02464797408703</v>
+        <v>10.01052058064286</v>
       </c>
       <c r="F56">
-        <v>10.91449468843677</v>
+        <v>6.146753013522864</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>25.28397067997475</v>
+        <v>10.12806585450974</v>
       </c>
       <c r="C57">
-        <v>4.952704023191253</v>
+        <v>3.511974714356029</v>
       </c>
       <c r="D57">
-        <v>5.882683141811722</v>
+        <v>2.579045049773461</v>
       </c>
       <c r="E57">
-        <v>6.095657073835268</v>
+        <v>10.06606109295725</v>
       </c>
       <c r="F57">
-        <v>11.01100075286826</v>
+        <v>6.232142199160406</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>25.49804392902821</v>
+        <v>10.17205646517765</v>
       </c>
       <c r="C58">
-        <v>5.011457303532199</v>
+        <v>3.546337842588274</v>
       </c>
       <c r="D58">
-        <v>5.94810971056492</v>
+        <v>2.594183378128575</v>
       </c>
       <c r="E58">
-        <v>6.166025696370861</v>
+        <v>10.11978560927514</v>
       </c>
       <c r="F58">
-        <v>11.10584796659362</v>
+        <v>6.317568949091601</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>25.70780406060707</v>
+        <v>10.21450412224187</v>
       </c>
       <c r="C59">
-        <v>5.070323567331473</v>
+        <v>3.580979759024689</v>
       </c>
       <c r="D59">
-        <v>6.012799277441427</v>
+        <v>2.60956242020701</v>
       </c>
       <c r="E59">
-        <v>6.235733618359862</v>
+        <v>10.17175315048384</v>
       </c>
       <c r="F59">
-        <v>11.19906386458775</v>
+        <v>6.402999849876196</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>25.91334602938426</v>
+        <v>10.25546200990732</v>
       </c>
       <c r="C60">
-        <v>5.129279039976744</v>
+        <v>3.615898753471925</v>
       </c>
       <c r="D60">
-        <v>6.076721518406722</v>
+        <v>2.625182726092453</v>
       </c>
       <c r="E60">
-        <v>6.304763960474212</v>
+        <v>10.22202103769764</v>
       </c>
       <c r="F60">
-        <v>11.29067549470605</v>
+        <v>6.488403798352128</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>26.11476244196241</v>
+        <v>10.2949813587587</v>
       </c>
       <c r="C61">
-        <v>5.188300487812623</v>
+        <v>3.651092919151873</v>
       </c>
       <c r="D61">
-        <v>6.139852659626333</v>
+        <v>2.641044351259786</v>
       </c>
       <c r="E61">
-        <v>6.373102768564992</v>
+        <v>10.270644841827</v>
       </c>
       <c r="F61">
-        <v>11.38070942649062</v>
+        <v>6.573751942833704</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>26.31214357436694</v>
+        <v>10.33311153365194</v>
       </c>
       <c r="C62">
-        <v>5.247365316505429</v>
+        <v>3.686560158717441</v>
       </c>
       <c r="D62">
-        <v>6.202174510926867</v>
+        <v>2.657146828437718</v>
       </c>
       <c r="E62">
-        <v>6.440738664335918</v>
+        <v>10.31767848480893</v>
       </c>
       <c r="F62">
-        <v>11.46919175881943</v>
+        <v>6.659017599338933</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>26.50557762349769</v>
+        <v>10.36990008825142</v>
       </c>
       <c r="C63">
-        <v>5.306451670619666</v>
+        <v>3.722298187105102</v>
       </c>
       <c r="D63">
-        <v>6.263673636459485</v>
+        <v>2.67348916116627</v>
       </c>
       <c r="E63">
-        <v>6.507662554828392</v>
+        <v>10.36317420298532</v>
       </c>
       <c r="F63">
-        <v>11.55614812842891</v>
+        <v>6.744176152852267</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>26.69515068889752</v>
+        <v>10.40539284981175</v>
       </c>
       <c r="C64">
-        <v>5.365538515368378</v>
+        <v>3.75830453915952</v>
       </c>
       <c r="D64">
-        <v>6.324340590085153</v>
+        <v>2.690069805712194</v>
       </c>
       <c r="E64">
-        <v>6.573867343111243</v>
+        <v>10.40718261526796</v>
       </c>
       <c r="F64">
-        <v>11.64160371871807</v>
+        <v>6.829204948341623</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>26.88094674081877</v>
+        <v>10.43963397876776</v>
       </c>
       <c r="C65">
-        <v>5.424605687751847</v>
+        <v>3.79457657715051</v>
       </c>
       <c r="D65">
-        <v>6.384169283800131</v>
+        <v>2.706886660689773</v>
       </c>
       <c r="E65">
-        <v>6.639347687398541</v>
+        <v>10.44975274766509</v>
       </c>
       <c r="F65">
-        <v>11.72558326792235</v>
+        <v>6.914083179062427</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>27.06304769360979</v>
+        <v>10.47266603090295</v>
       </c>
       <c r="C66">
-        <v>5.483633905544335</v>
+        <v>3.831111491169975</v>
       </c>
       <c r="D66">
-        <v>6.44315646307361</v>
+        <v>2.72393707400006</v>
       </c>
       <c r="E66">
-        <v>6.704099795147117</v>
+        <v>10.49093205358257</v>
       </c>
       <c r="F66">
-        <v>11.80811107762913</v>
+        <v>6.998791773349844</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>27.24153350288684</v>
+        <v>10.50453002914038</v>
       </c>
       <c r="C67">
-        <v>5.542604789088142</v>
+        <v>3.867906311085941</v>
       </c>
       <c r="D67">
-        <v>6.501301256972528</v>
+        <v>2.741217824380707</v>
       </c>
       <c r="E67">
-        <v>6.768121239232543</v>
+        <v>10.53076646125867</v>
       </c>
       <c r="F67">
-        <v>11.8892110256997</v>
+        <v>7.083313281346645</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>27.4164822233969</v>
+        <v>10.53526550972576</v>
       </c>
       <c r="C68">
-        <v>5.601500879518258</v>
+        <v>3.904957916758551</v>
       </c>
       <c r="D68">
-        <v>6.558604791589621</v>
+        <v>2.758725146343908</v>
       </c>
       <c r="E68">
-        <v>6.831410793613933</v>
+        <v>10.56930040340871</v>
       </c>
       <c r="F68">
-        <v>11.968906556412</v>
+        <v>7.167631763706087</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>27.58797004083926</v>
+        <v>10.56491058784277</v>
       </c>
       <c r="C69">
-        <v>5.660305644386868</v>
+        <v>3.942263028250883</v>
       </c>
       <c r="D69">
-        <v>6.615069870767909</v>
+        <v>2.77645472664959</v>
       </c>
       <c r="E69">
-        <v>6.893968289292077</v>
+        <v>10.60657686005575</v>
       </c>
       <c r="F69">
-        <v>12.04722071857442</v>
+        <v>7.251732684140911</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>27.75607131678322</v>
+        <v>10.59350201017092</v>
       </c>
       <c r="C70">
-        <v>5.71900347093351</v>
+        <v>3.979818245773367</v>
       </c>
       <c r="D70">
-        <v>6.670700707581523</v>
+        <v>2.794401719363543</v>
       </c>
       <c r="E70">
-        <v>6.955794490938374</v>
+        <v>10.6426373957865</v>
       </c>
       <c r="F70">
-        <v>12.12417611993634</v>
+        <v>7.335602807354406</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>27.92085863548088</v>
+        <v>10.62107520204792</v>
       </c>
       <c r="C71">
-        <v>5.777579650109857</v>
+        <v>4.017620020425088</v>
       </c>
       <c r="D71">
-        <v>6.725502695149189</v>
+        <v>2.81256077720904</v>
       </c>
       <c r="E71">
-        <v>7.016890987266859</v>
+        <v>10.67752219797875</v>
       </c>
       <c r="F71">
-        <v>12.19979500916602</v>
+        <v>7.41923010141792</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>28.08240286021847</v>
+        <v>10.64766432252349</v>
       </c>
       <c r="C72">
-        <v>5.836020354796362</v>
+        <v>4.055664687282388</v>
       </c>
       <c r="D72">
-        <v>6.779482215270956</v>
+        <v>2.830926052005027</v>
       </c>
       <c r="E72">
-        <v>7.077260094247127</v>
+        <v>10.71127012183361</v>
       </c>
       <c r="F72">
-        <v>12.2740992009976</v>
+        <v>7.502603646132385</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>28.24077316263415</v>
+        <v>10.67330230512483</v>
       </c>
       <c r="C73">
-        <v>5.894312614098354</v>
+        <v>4.093948473673938</v>
       </c>
       <c r="D73">
-        <v>6.832646476438722</v>
+        <v>2.849491244872473</v>
       </c>
       <c r="E73">
-        <v>7.136904769840564</v>
+        <v>10.74391872437953</v>
       </c>
       <c r="F73">
-        <v>12.34711016832654</v>
+        <v>7.585713546916969</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>28.39603708804026</v>
+        <v>10.69802093252641</v>
       </c>
       <c r="C74">
-        <v>5.952444285264518</v>
+        <v>4.132467490656987</v>
       </c>
       <c r="D74">
-        <v>6.885003375910374</v>
+        <v>2.86824962246255</v>
       </c>
       <c r="E74">
-        <v>7.19582853869303</v>
+        <v>10.7755043068873</v>
       </c>
       <c r="F74">
-        <v>12.41884897070576</v>
+        <v>7.668550854571532</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>28.5482605853539</v>
+        <v>10.72185081494212</v>
       </c>
       <c r="C75">
-        <v>6.010404026697929</v>
+        <v>4.171217761615285</v>
       </c>
       <c r="D75">
-        <v>6.93656138377671</v>
+        <v>2.887194054438595</v>
       </c>
       <c r="E75">
-        <v>7.254035425922083</v>
+        <v>10.80606195167962</v>
       </c>
       <c r="F75">
-        <v>12.48933633048401</v>
+        <v>7.751107490666249</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>28.697508052465</v>
+        <v>10.74482153837258</v>
       </c>
       <c r="C76">
-        <v>6.068181259388793</v>
+        <v>4.210195215798167</v>
       </c>
       <c r="D76">
-        <v>6.987329443815701</v>
+        <v>2.906317057770701</v>
       </c>
       <c r="E76">
-        <v>7.311529898054595</v>
+        <v>10.83562556009135</v>
       </c>
       <c r="F76">
-        <v>12.55859257896969</v>
+        <v>7.833376178325701</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>28.84384237518866</v>
+        <v>10.76696160692273</v>
       </c>
       <c r="C77">
-        <v>6.125766147087497</v>
+        <v>4.249395704197537</v>
       </c>
       <c r="D77">
-        <v>7.037316888640547</v>
+        <v>2.925610820605185</v>
       </c>
       <c r="E77">
-        <v>7.368316810624834</v>
+        <v>10.86422788509413</v>
       </c>
       <c r="F77">
-        <v>12.62663771231872</v>
+        <v>7.915350378163452</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>28.98732496265114</v>
+        <v>10.78829850946463</v>
       </c>
       <c r="C78">
-        <v>6.183149541482293</v>
+        <v>4.28881500671602</v>
       </c>
       <c r="D78">
-        <v>7.0865333679456</v>
+        <v>2.945067259136219</v>
       </c>
       <c r="E78">
-        <v>7.424401361523032</v>
+        <v>10.89190057847814</v>
       </c>
       <c r="F78">
-        <v>12.6934913580827</v>
+        <v>7.997024229141172</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>29.12801578849773</v>
+        <v>10.80885881763264</v>
       </c>
       <c r="C79">
-        <v>6.240322967776137</v>
+        <v>4.328448839777669</v>
       </c>
       <c r="D79">
-        <v>7.134988786646799</v>
+        <v>2.964678047993195</v>
       </c>
       <c r="E79">
-        <v>7.47978904957383</v>
+        <v>10.91867421947392</v>
       </c>
       <c r="F79">
-        <v>12.75917281583154</v>
+        <v>8.07839249414123</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>29.2659734245042</v>
+        <v>10.82866809370624</v>
       </c>
       <c r="C80">
-        <v>6.297278571520563</v>
+        <v>4.368292863675014</v>
       </c>
       <c r="D80">
-        <v>7.182693251503455</v>
+        <v>2.984434667260532</v>
       </c>
       <c r="E80">
-        <v>7.534485637449117</v>
+        <v>10.94457834211373</v>
       </c>
       <c r="F80">
-        <v>12.8237010342162</v>
+        <v>8.159450511217559</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>29.40125507880303</v>
+        <v>10.84775107128847</v>
       </c>
       <c r="C81">
-        <v>6.354009097702973</v>
+        <v>4.408342693368395</v>
       </c>
       <c r="D81">
-        <v>7.229657025656533</v>
+        <v>3.004328445131596</v>
       </c>
       <c r="E81">
-        <v>7.588497118297965</v>
+        <v>10.96964149978233</v>
       </c>
       <c r="F81">
-        <v>12.88709464163212</v>
+        <v>8.240194144489339</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>29.53391663090115</v>
+        <v>10.86613158211728</v>
       </c>
       <c r="C82">
-        <v>6.410507849917301</v>
+        <v>4.448593904121283</v>
       </c>
       <c r="D82">
-        <v>7.275890489324143</v>
+        <v>3.024350597026192</v>
       </c>
       <c r="E82">
-        <v>7.641829686096964</v>
+        <v>10.99389125280061</v>
       </c>
       <c r="F82">
-        <v>12.94937193347844</v>
+        <v>8.320619742457398</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>29.66401266575656</v>
+        <v>10.88383262615018</v>
       </c>
       <c r="C83">
-        <v>6.466768665952572</v>
+        <v>4.489042039650085</v>
       </c>
       <c r="D83">
-        <v>7.321404105792193</v>
+        <v>3.044492269176232</v>
       </c>
       <c r="E83">
-        <v>7.694489708911376</v>
+        <v>11.01735423795475</v>
       </c>
       <c r="F83">
-        <v>13.01055089147954</v>
+        <v>8.400724101289445</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>29.79159650534774</v>
+        <v>10.90087642157947</v>
       </c>
       <c r="C84">
-        <v>6.522785877989298</v>
+        <v>4.529682622414574</v>
       </c>
       <c r="D84">
-        <v>7.366208391208283</v>
+        <v>3.064744575646456</v>
       </c>
       <c r="E84">
-        <v>7.746483704805654</v>
+        <v>11.04005619906764</v>
       </c>
       <c r="F84">
-        <v>13.07064916876865</v>
+        <v>8.480504423822236</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>29.91672024403357</v>
+        <v>10.91728438374806</v>
       </c>
       <c r="C85">
-        <v>6.578554294191864</v>
+        <v>4.570511154523565</v>
       </c>
       <c r="D85">
-        <v>7.410313886930251</v>
+        <v>3.085098638675447</v>
       </c>
       <c r="E85">
-        <v>7.797818320092422</v>
+        <v>11.06202196928654</v>
       </c>
       <c r="F85">
-        <v>13.12968413349131</v>
+        <v>8.559958293289354</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>30.0394351445828</v>
+        <v>10.93307721814525</v>
       </c>
       <c r="C86">
-        <v>6.634069003001559</v>
+        <v>4.61152313396742</v>
       </c>
       <c r="D86">
-        <v>7.453731211142887</v>
+        <v>3.105545618431831</v>
       </c>
       <c r="E86">
-        <v>7.848500357813566</v>
+        <v>11.08327557679099</v>
       </c>
       <c r="F86">
-        <v>13.18767284931372</v>
+        <v>8.639083641497617</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>30.15979021601667</v>
+        <v>10.9482748926174</v>
       </c>
       <c r="C87">
-        <v>6.689325995792131</v>
+        <v>4.652714053789613</v>
       </c>
       <c r="D87">
-        <v>7.496470799638775</v>
+        <v>3.1260767546642</v>
       </c>
       <c r="E87">
-        <v>7.898536619428224</v>
+        <v>11.10384021354576</v>
       </c>
       <c r="F87">
-        <v>13.24463207936212</v>
+        <v>8.717878719695948</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>30.27783418874117</v>
+        <v>10.9628966956427</v>
       </c>
       <c r="C88">
-        <v>6.744321211648465</v>
+        <v>4.694079409710231</v>
       </c>
       <c r="D88">
-        <v>7.538543139983344</v>
+        <v>3.14668338731116</v>
       </c>
       <c r="E88">
-        <v>7.947933969154658</v>
+        <v>11.12373827662513</v>
       </c>
       <c r="F88">
-        <v>13.30057829157769</v>
+        <v>8.796342072508478</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>30.39361463106479</v>
+        <v>10.97696126155183</v>
       </c>
       <c r="C89">
-        <v>6.799051029111381</v>
+        <v>4.735614713334377</v>
       </c>
       <c r="D89">
-        <v>7.579958740429493</v>
+        <v>3.167356990775449</v>
       </c>
       <c r="E89">
-        <v>7.996699445022841</v>
+        <v>11.14299142732954</v>
       </c>
       <c r="F89">
-        <v>13.35552766283347</v>
+        <v>8.87447251613073</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>30.50717804602649</v>
+        <v>10.99048655542247</v>
       </c>
       <c r="C90">
-        <v>6.853512171136156</v>
+        <v>4.777315483344853</v>
       </c>
       <c r="D90">
-        <v>7.620728004754596</v>
+        <v>3.188089198115381</v>
       </c>
       <c r="E90">
-        <v>8.044840076956215</v>
+        <v>11.16162055574974</v>
       </c>
       <c r="F90">
-        <v>13.40949610837999</v>
+        <v>8.952269116541084</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>30.61856988003102</v>
+        <v>11.00348996266195</v>
       </c>
       <c r="C91">
-        <v>6.907701702329825</v>
+        <v>4.819177269235866</v>
       </c>
       <c r="D91">
-        <v>7.660861265559659</v>
+        <v>3.208871816152076</v>
       </c>
       <c r="E91">
-        <v>8.092362926664777</v>
+        <v>11.17964587421617</v>
       </c>
       <c r="F91">
-        <v>13.46249926661019</v>
+        <v>9.0297311677626</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>30.72783442981976</v>
+        <v>11.01598824485539</v>
       </c>
       <c r="C92">
-        <v>6.961616993776637</v>
+        <v>4.861195642890054</v>
       </c>
       <c r="D92">
-        <v>7.700368771150468</v>
+        <v>3.229696857711493</v>
       </c>
       <c r="E92">
-        <v>8.139275083139879</v>
+        <v>11.19708690202269</v>
       </c>
       <c r="F92">
-        <v>13.51455250948663</v>
+        <v>9.106858176900349</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>30.83501493422558</v>
+        <v>11.02799760505578</v>
       </c>
       <c r="C93">
-        <v>7.015255697063477</v>
+        <v>4.903366206211371</v>
       </c>
       <c r="D93">
-        <v>7.739260683970186</v>
+        <v>3.250556543312938</v>
       </c>
       <c r="E93">
-        <v>8.185583651701659</v>
+        <v>11.21396248300391</v>
       </c>
       <c r="F93">
-        <v>13.56567088319637</v>
+        <v>9.183649846233147</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>30.9401536696226</v>
+        <v>11.03953369769205</v>
       </c>
       <c r="C94">
-        <v>7.068615724697008</v>
+        <v>4.945684604063841</v>
       </c>
       <c r="D94">
-        <v>7.777547070295523</v>
+        <v>3.271443325321203</v>
       </c>
       <c r="E94">
-        <v>8.231295741637627</v>
+        <v>11.2302908501742</v>
       </c>
       <c r="F94">
-        <v>13.6158692669975</v>
+        <v>9.260106057156609</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31.04329198625951</v>
+        <v>11.0506116270529</v>
       </c>
       <c r="C95">
-        <v>7.121695233476617</v>
+        <v>4.988146512073379</v>
       </c>
       <c r="D95">
-        <v>7.815237905332517</v>
+        <v>3.292349896318592</v>
       </c>
       <c r="E95">
-        <v>8.276418464079441</v>
+        <v>11.24608959518865</v>
       </c>
       <c r="F95">
-        <v>13.66516226735349</v>
+        <v>9.336226857615218</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31.14447033225716</v>
+        <v>11.06124600829743</v>
       </c>
       <c r="C96">
-        <v>7.174492609132436</v>
+        <v>5.030747660235194</v>
       </c>
       <c r="D96">
-        <v>7.852343048849047</v>
+        <v>3.313269192555832</v>
       </c>
       <c r="E96">
-        <v>8.320958923746815</v>
+        <v>11.26137572596595</v>
       </c>
       <c r="F96">
-        <v>13.71356422477193</v>
+        <v>9.412012450278501</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31.24372823600699</v>
+        <v>11.07145094042487</v>
       </c>
       <c r="C97">
-        <v>7.227006451751802</v>
+        <v>5.073483821840377</v>
       </c>
       <c r="D97">
-        <v>7.888872257636836</v>
+        <v>3.33419441221803</v>
       </c>
       <c r="E97">
-        <v>8.364924203360664</v>
+        <v>11.27616568723748</v>
       </c>
       <c r="F97">
-        <v>13.76108925670247</v>
+        <v>9.487463171187896</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31.34110434200338</v>
+        <v>11.08124006112643</v>
       </c>
       <c r="C98">
-        <v>7.279235561969509</v>
+        <v>5.116350820394826</v>
       </c>
       <c r="D98">
-        <v>7.924835169376541</v>
+        <v>3.35511900670301</v>
       </c>
       <c r="E98">
-        <v>8.40832137173539</v>
+        <v>11.29047534134424</v>
       </c>
       <c r="F98">
-        <v>13.8077511871933</v>
+        <v>9.562579499276435</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31.43663643863918</v>
+        <v>11.09062654662122</v>
       </c>
       <c r="C99">
-        <v>7.331178930128741</v>
+        <v>5.159344540395163</v>
       </c>
       <c r="D99">
-        <v>7.960241300279917</v>
+        <v>3.376036692793132</v>
       </c>
       <c r="E99">
-        <v>8.451157464790771</v>
+        <v>11.3043200464558</v>
       </c>
       <c r="F99">
-        <v>13.85356362062264</v>
+        <v>9.637362009886433</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31.53036144351443</v>
+        <v>11.09962311964665</v>
       </c>
       <c r="C100">
-        <v>7.382835740576115</v>
+        <v>5.202460914054675</v>
       </c>
       <c r="D100">
-        <v>7.995100051268381</v>
+        <v>3.396941450363963</v>
       </c>
       <c r="E100">
-        <v>8.493439484518056</v>
+        <v>11.31771462950365</v>
       </c>
       <c r="F100">
-        <v>13.89853995344166</v>
+        <v>9.711811413264982</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31.62231553444251</v>
+        <v>11.10824209494566</v>
       </c>
       <c r="C101">
-        <v>7.434205286013715</v>
+        <v>5.245695943072151</v>
       </c>
       <c r="D101">
-        <v>8.029420695169398</v>
+        <v>3.4178275187444</v>
       </c>
       <c r="E101">
-        <v>8.535174400355201</v>
+        <v>11.33067341413337</v>
       </c>
       <c r="F101">
-        <v>13.94269331517416</v>
+        <v>9.785928498684786</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31.71253396179931</v>
+        <v>11.11649535322992</v>
       </c>
       <c r="C102">
-        <v>7.485287040685056</v>
+        <v>5.289045686256602</v>
       </c>
       <c r="D102">
-        <v>8.063212380695839</v>
+        <v>3.438689402521625</v>
       </c>
       <c r="E102">
-        <v>8.576369139163965</v>
+        <v>11.34321026282383</v>
       </c>
       <c r="F102">
-        <v>13.98603664668663</v>
+        <v>9.85971415915208</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31.80105126550302</v>
+        <v>11.12439439723276</v>
       </c>
       <c r="C103">
-        <v>7.536080633096244</v>
+        <v>5.332506265565065</v>
       </c>
       <c r="D103">
-        <v>8.09648413169476</v>
+        <v>3.459521859572602</v>
       </c>
       <c r="E103">
-        <v>8.617030582066441</v>
+        <v>11.35533854721649</v>
       </c>
       <c r="F103">
-        <v>14.02858265169426</v>
+        <v>9.933169376207429</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31.88790126502564</v>
+        <v>11.13195033980175</v>
       </c>
       <c r="C104">
-        <v>7.586585816172065</v>
+        <v>5.37607387420244</v>
       </c>
       <c r="D104">
-        <v>8.129244841204553</v>
+        <v>3.480319903403845</v>
       </c>
       <c r="E104">
-        <v>8.657165564112878</v>
+        <v>11.36707121481524</v>
       </c>
       <c r="F104">
-        <v>14.0703438417835</v>
+        <v>10.00629520183817</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31.97311684078094</v>
+        <v>11.1391739175077</v>
       </c>
       <c r="C105">
-        <v>7.636802489143006</v>
+        <v>5.419744764388668</v>
       </c>
       <c r="D105">
-        <v>8.161503279338643</v>
+        <v>3.501078795673595</v>
       </c>
       <c r="E105">
-        <v>8.696780869224888</v>
+        <v>11.37842077464526</v>
       </c>
       <c r="F105">
-        <v>14.11133255892882</v>
+        <v>10.07909277192813</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>32.05673040098495</v>
+        <v>11.14607552518645</v>
       </c>
       <c r="C106">
-        <v>7.686730651445176</v>
+        <v>5.463515265097505</v>
       </c>
       <c r="D106">
-        <v>8.193268080934006</v>
+        <v>3.521794039259834</v>
       </c>
       <c r="E106">
-        <v>8.735883232598125</v>
+        <v>11.38939930589132</v>
       </c>
       <c r="F106">
-        <v>14.15156083264294</v>
+        <v>10.15156327925002</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>32.13877346368699</v>
+        <v>11.15266519567284</v>
       </c>
       <c r="C107">
-        <v>7.736370421752</v>
+        <v>5.507381770449716</v>
       </c>
       <c r="D107">
-        <v>8.224547756968031</v>
+        <v>3.54246137581517</v>
       </c>
       <c r="E107">
-        <v>8.774479325053225</v>
+        <v>11.40001850621054</v>
       </c>
       <c r="F107">
-        <v>14.19104046402378</v>
+        <v>10.22370798532167</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>32.21927688027108</v>
+        <v>11.15895264622831</v>
       </c>
       <c r="C108">
-        <v>7.785722010939569</v>
+        <v>5.551340744563591</v>
       </c>
       <c r="D108">
-        <v>8.255350687769957</v>
+        <v>3.5630767744767</v>
       </c>
       <c r="E108">
-        <v>8.81257577388941</v>
+        <v>11.41028966742813</v>
       </c>
       <c r="F108">
-        <v>14.22978318045784</v>
+        <v>10.29552820041779</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>32.29827092398448</v>
+        <v>11.16494726671803</v>
       </c>
       <c r="C109">
-        <v>7.834785722561226</v>
+        <v>5.595388726863859</v>
       </c>
       <c r="D109">
-        <v>8.285685122202258</v>
+        <v>3.583636428012853</v>
       </c>
       <c r="E109">
-        <v>8.850179131437791</v>
+        <v>11.42022371303698</v>
       </c>
       <c r="F109">
-        <v>14.26780045064384</v>
+        <v>10.3670252931372</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>32.37578513787599</v>
+        <v>11.17065813516394</v>
       </c>
       <c r="C110">
-        <v>7.883561953742551</v>
+        <v>5.639522321807466</v>
       </c>
       <c r="D110">
-        <v>8.315559181401579</v>
+        <v>3.604136743945434</v>
       </c>
       <c r="E110">
-        <v>8.887295899782726</v>
+        <v>11.42983121153322</v>
       </c>
       <c r="F110">
-        <v>14.30510349835133</v>
+        <v>10.43820067211806</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>32.45184843936523</v>
+        <v>11.17609404130559</v>
       </c>
       <c r="C111">
-        <v>7.932051183007413</v>
+        <v>5.683738212267688</v>
       </c>
       <c r="D111">
-        <v>8.344980859645263</v>
+        <v>3.624574336763054</v>
       </c>
       <c r="E111">
-        <v>8.923932512324821</v>
+        <v>11.43912236336597</v>
       </c>
       <c r="F111">
-        <v>14.34170346421532</v>
+        <v>10.50905579267463</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>32.52648912094073</v>
+        <v>11.18126347376976</v>
       </c>
       <c r="C112">
-        <v>7.98025396495031</v>
+        <v>5.728033149518036</v>
       </c>
       <c r="D112">
-        <v>8.373958019300794</v>
+        <v>3.644946021100899</v>
       </c>
       <c r="E112">
-        <v>8.960095337429257</v>
+        <v>11.44810705161889</v>
       </c>
       <c r="F112">
-        <v>14.37761125392502</v>
+        <v>10.57959214883543</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>32.59973489057887</v>
+        <v>11.18617465668387</v>
       </c>
       <c r="C113">
-        <v>8.028170923798767</v>
+        <v>5.77240395681579</v>
       </c>
       <c r="D113">
-        <v>8.402498398990188</v>
+        <v>3.665248802517894</v>
       </c>
       <c r="E113">
-        <v>8.99579067965084</v>
+        <v>11.45679482375448</v>
       </c>
       <c r="F113">
-        <v>14.41283761085131</v>
+        <v>10.64981126783769</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>32.67161279634226</v>
+        <v>11.19083553913454</v>
       </c>
       <c r="C114">
-        <v>8.075802750940474</v>
+        <v>5.816847532318001</v>
       </c>
       <c r="D114">
-        <v>8.430609610849164</v>
+        <v>3.685479872459924</v>
       </c>
       <c r="E114">
-        <v>9.0310247778435</v>
+        <v>11.46519490922317</v>
       </c>
       <c r="F114">
-        <v>14.44739307262807</v>
+        <v>10.71971471382484</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>32.74214935011297</v>
+        <v>11.19525381093448</v>
       </c>
       <c r="C115">
-        <v>8.123150225848709</v>
+        <v>5.861360841147537</v>
       </c>
       <c r="D115">
-        <v>8.45829913975499</v>
+        <v>3.705636596205405</v>
       </c>
       <c r="E115">
-        <v>9.065803800860008</v>
+        <v>11.47331624697262</v>
       </c>
       <c r="F115">
-        <v>14.48128805099016</v>
+        <v>10.78930407538823</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>32.81137047673271</v>
+        <v>11.19943691888153</v>
       </c>
       <c r="C116">
-        <v>8.170214131294287</v>
+        <v>5.905940924512652</v>
       </c>
       <c r="D116">
-        <v>8.485574350990454</v>
+        <v>3.725716510289335</v>
       </c>
       <c r="E116">
-        <v>9.100133854589455</v>
+        <v>11.48116746485486</v>
       </c>
       <c r="F116">
-        <v>14.51453274691866</v>
+        <v>10.85858097281356</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>32.87930153136615</v>
+        <v>11.20339205810274</v>
       </c>
       <c r="C117">
-        <v>8.216995363821958</v>
+        <v>5.95058489174712</v>
       </c>
       <c r="D117">
-        <v>8.512442483262356</v>
+        <v>3.74571731191145</v>
       </c>
       <c r="E117">
-        <v>9.134020972759213</v>
+        <v>11.48875692324217</v>
       </c>
       <c r="F117">
-        <v>14.54713718644113</v>
+        <v>10.92754704593952</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>32.94596733251372</v>
+        <v>11.20712620191652</v>
       </c>
       <c r="C118">
-        <v>8.263494882397646</v>
+        <v>5.995289922633859</v>
       </c>
       <c r="D118">
-        <v>8.538910655959992</v>
+        <v>3.765636850667988</v>
       </c>
       <c r="E118">
-        <v>9.167471123647999</v>
+        <v>11.4960927051492</v>
       </c>
       <c r="F118">
-        <v>14.57911124323985</v>
+        <v>10.99620396022588</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>33.01139216848782</v>
+        <v>11.21064609197097</v>
       </c>
       <c r="C119">
-        <v>8.309713607455928</v>
+        <v>6.04005326852153</v>
       </c>
       <c r="D119">
-        <v>8.564985867235023</v>
+        <v>3.785473123649022</v>
       </c>
       <c r="E119">
-        <v>9.200490204796644</v>
+        <v>11.50318262130416</v>
       </c>
       <c r="F119">
-        <v>14.61046462239399</v>
+        <v>11.0645533971943</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>33.0755998076127</v>
+        <v>11.21395825405547</v>
       </c>
       <c r="C120">
-        <v>8.35565259701635</v>
+        <v>6.084872246525769</v>
       </c>
       <c r="D120">
-        <v>8.590674996429833</v>
+        <v>3.805224268445343</v>
       </c>
       <c r="E120">
-        <v>9.233084045214481</v>
+        <v>11.51003424112142</v>
       </c>
       <c r="F120">
-        <v>14.64120685651791</v>
+        <v>11.13259705751936</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>33.13861350880681</v>
+        <v>11.21706900834441</v>
       </c>
       <c r="C121">
-        <v>8.401312923455571</v>
+        <v>6.129744245095893</v>
       </c>
       <c r="D121">
-        <v>8.615984805896234</v>
+        <v>3.824888553004777</v>
       </c>
       <c r="E121">
-        <v>9.265258403861981</v>
+        <v>11.5166548770882</v>
       </c>
       <c r="F121">
-        <v>14.67134732613328</v>
+        <v>11.20033665669327</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>33.20045603957143</v>
+        <v>11.21998446484793</v>
       </c>
       <c r="C122">
-        <v>8.446695658921243</v>
+        <v>6.174666718044389</v>
       </c>
       <c r="D122">
-        <v>8.640921940748251</v>
+        <v>3.844464372128525</v>
       </c>
       <c r="E122">
-        <v>9.297018971291525</v>
+        <v>11.52305160810705</v>
       </c>
       <c r="F122">
-        <v>14.70089528604478</v>
+        <v>11.26777392291086</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>33.2611496769815</v>
+        <v>11.22271054676579</v>
       </c>
       <c r="C123">
-        <v>8.491801948547851</v>
+        <v>6.219637185747534</v>
       </c>
       <c r="D123">
-        <v>8.665492934572917</v>
+        <v>3.863950243335073</v>
       </c>
       <c r="E123">
-        <v>9.328371369084978</v>
+        <v>11.52923128806236</v>
       </c>
       <c r="F123">
-        <v>14.72985979662877</v>
+        <v>11.33491059782795</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>33.32071623366894</v>
+        <v>11.2252529819921</v>
       </c>
       <c r="C124">
-        <v>8.536632957199313</v>
+        <v>6.264653235067542</v>
       </c>
       <c r="D124">
-        <v>8.689704204199154</v>
+        <v>3.883344792011833</v>
       </c>
       <c r="E124">
-        <v>9.359321145674473</v>
+        <v>11.53520053760962</v>
       </c>
       <c r="F124">
-        <v>14.7582497753836</v>
+        <v>11.40174843106317</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>33.37917707199917</v>
+        <v>11.22761731853752</v>
       </c>
       <c r="C125">
-        <v>8.581189881238931</v>
+        <v>6.309712515310761</v>
       </c>
       <c r="D125">
-        <v>8.713562054575258</v>
+        <v>3.902646759079811</v>
       </c>
       <c r="E125">
-        <v>9.389873778628049</v>
+        <v>11.54096577572561</v>
       </c>
       <c r="F125">
-        <v>14.78607399976599</v>
+        <v>11.46828918356238</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>33.43655310944744</v>
+        <v>11.22980893004576</v>
       </c>
       <c r="C126">
-        <v>8.625473934255814</v>
+        <v>6.354812741026433</v>
       </c>
       <c r="D126">
-        <v>8.737072680635913</v>
+        <v>3.921854982018407</v>
       </c>
       <c r="E126">
-        <v>9.420034690265839</v>
+        <v>11.54653320844544</v>
       </c>
       <c r="F126">
-        <v>14.81334114910836</v>
+        <v>11.53453462112712</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>33.49286478295927</v>
+        <v>11.2318330143341</v>
       </c>
       <c r="C127">
-        <v>8.669486368477873</v>
+        <v>6.399951687808529</v>
       </c>
       <c r="D127">
-        <v>8.760242177388871</v>
+        <v>3.940968396485337</v>
       </c>
       <c r="E127">
-        <v>9.449809217849319</v>
+        <v>11.55190883972065</v>
       </c>
       <c r="F127">
-        <v>14.84005969351738</v>
+        <v>11.60048651810573</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>33.54813212446584</v>
+        <v>11.23369461173067</v>
       </c>
       <c r="C128">
-        <v>8.713228463224882</v>
+        <v>6.445127192549212</v>
       </c>
       <c r="D128">
-        <v>8.783076520241709</v>
+        <v>3.959986034141483</v>
       </c>
       <c r="E128">
-        <v>9.479202630903625</v>
+        <v>11.55709848872543</v>
       </c>
       <c r="F128">
-        <v>14.86623798481541</v>
+        <v>11.66614665181736</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>33.60237477747384</v>
+        <v>11.23539859746804</v>
       </c>
       <c r="C129">
-        <v>8.756701506992668</v>
+        <v>6.490337152664536</v>
       </c>
       <c r="D129">
-        <v>8.805581581773597</v>
+        <v>3.978907007031955</v>
       </c>
       <c r="E129">
-        <v>9.508220134106454</v>
+        <v>11.56210777692647</v>
       </c>
       <c r="F129">
-        <v>14.89188424190026</v>
+        <v>11.73151680460599</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>33.6556119717683</v>
+        <v>11.23694969671979</v>
       </c>
       <c r="C130">
-        <v>8.799906822321708</v>
+        <v>6.535579523384222</v>
       </c>
       <c r="D130">
-        <v>8.827763132485575</v>
+        <v>3.997730516523149</v>
       </c>
       <c r="E130">
-        <v>9.536866877251375</v>
+        <v>11.56694215526083</v>
       </c>
       <c r="F130">
-        <v>14.91700658138391</v>
+        <v>11.79659876130571</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>33.70786247428925</v>
+        <v>11.23835248645437</v>
       </c>
       <c r="C131">
-        <v>8.842845748138636</v>
+        <v>6.580852318562466</v>
       </c>
       <c r="D131">
-        <v>8.849626850189441</v>
+        <v>4.016455836820774</v>
       </c>
       <c r="E131">
-        <v>9.565147921309386</v>
+        <v>11.57160689812839</v>
       </c>
       <c r="F131">
-        <v>14.94161294704085</v>
+        <v>11.8613943089499</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>33.75914469167573</v>
+        <v>11.23961139634289</v>
       </c>
       <c r="C132">
-        <v>8.885519640094973</v>
+        <v>6.626153607915365</v>
       </c>
       <c r="D132">
-        <v>8.871178297224381</v>
+        <v>4.035082316430064</v>
       </c>
       <c r="E132">
-        <v>9.593068265491743</v>
+        <v>11.57610710639914</v>
       </c>
       <c r="F132">
-        <v>14.9657111690715</v>
+        <v>11.92590523654971</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>33.809476688671</v>
+        <v>11.24073072296116</v>
       </c>
       <c r="C133">
-        <v>8.927929869283147</v>
+        <v>6.671481516536534</v>
       </c>
       <c r="D133">
-        <v>8.892422941295024</v>
+        <v>4.053609377404573</v>
       </c>
       <c r="E133">
-        <v>9.620632852348347</v>
+        <v>11.58044772683717</v>
       </c>
       <c r="F133">
-        <v>14.98930895167713</v>
+        <v>11.99013333052035</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>33.85887614314547</v>
+        <v>11.24171461796412</v>
       </c>
       <c r="C134">
-        <v>8.970077823368207</v>
+        <v>6.716834223803607</v>
       </c>
       <c r="D134">
-        <v>8.913366154791682</v>
+        <v>4.072036501141425</v>
       </c>
       <c r="E134">
-        <v>9.647846554689702</v>
+        <v>11.5846335424365</v>
       </c>
       <c r="F134">
-        <v>15.01241387365814</v>
+        <v>12.0540803764875</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>33.90736031704832</v>
+        <v>11.24256711316961</v>
       </c>
       <c r="C135">
-        <v>9.011964902397638</v>
+        <v>6.762209961601675</v>
       </c>
       <c r="D135">
-        <v>8.93401321866653</v>
+        <v>4.090363237683121</v>
       </c>
       <c r="E135">
-        <v>9.674714173751074</v>
+        <v>11.58866918682775</v>
       </c>
       <c r="F135">
-        <v>15.03503339560728</v>
+        <v>12.11774816602336</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>33.95494613874545</v>
+        <v>11.243292117146</v>
       </c>
       <c r="C136">
-        <v>9.053592517451147</v>
+        <v>6.807607013816027</v>
       </c>
       <c r="D136">
-        <v>8.954369312145079</v>
+        <v>4.108589191221215</v>
       </c>
       <c r="E136">
-        <v>9.701240448591305</v>
+        <v>11.5925591497816</v>
       </c>
       <c r="F136">
-        <v>15.05717485891785</v>
+        <v>12.18113847860426</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>34.00165021992819</v>
+        <v>11.24389341615891</v>
       </c>
       <c r="C137">
-        <v>9.094962089186247</v>
+        <v>6.853023714666477</v>
       </c>
       <c r="D137">
-        <v>8.974439524668982</v>
+        <v>4.126714021661481</v>
       </c>
       <c r="E137">
-        <v>9.727430060690489</v>
+        <v>11.59630777212278</v>
       </c>
       <c r="F137">
-        <v>15.07884548527161</v>
+        <v>12.24425309206924</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>34.04748881955771</v>
+        <v>11.244374657653</v>
       </c>
       <c r="C138">
-        <v>9.136075047848159</v>
+        <v>6.898458447683824</v>
       </c>
       <c r="D138">
-        <v>8.99422885468101</v>
+        <v>4.144737444999575</v>
       </c>
       <c r="E138">
-        <v>9.753287620083379</v>
+        <v>11.59991926529687</v>
       </c>
       <c r="F138">
-        <v>15.10005233955644</v>
+        <v>12.30709378861856</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>34.09247782957895</v>
+        <v>11.2447394102095</v>
       </c>
       <c r="C139">
-        <v>9.176932835825221</v>
+        <v>6.943909644549862</v>
       </c>
       <c r="D139">
-        <v>9.01374221122564</v>
+        <v>4.16265922083279</v>
       </c>
       <c r="E139">
-        <v>9.778817675998617</v>
+        <v>11.6033977045251</v>
       </c>
       <c r="F139">
-        <v>15.12080243224125</v>
+        <v>12.36966234300702</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>34.1366328318848</v>
+        <v>11.24499112797873</v>
       </c>
       <c r="C140">
-        <v>9.217536896596103</v>
+        <v>6.989375783942326</v>
       </c>
       <c r="D140">
-        <v>9.032984415555784</v>
+        <v>4.180479160654961</v>
       </c>
       <c r="E140">
-        <v>9.804024715572998</v>
+        <v>11.60674703550442</v>
       </c>
       <c r="F140">
-        <v>15.14110264459487</v>
+        <v>12.4319605207496</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>34.17996911276662</v>
+        <v>11.24513314206078</v>
       </c>
       <c r="C141">
-        <v>9.25788868375499</v>
+        <v>7.034855390225398</v>
       </c>
       <c r="D141">
-        <v>9.051960202726622</v>
+        <v>4.19819711641909</v>
       </c>
       <c r="E141">
-        <v>9.828913164581866</v>
+        <v>11.60997108523596</v>
       </c>
       <c r="F141">
-        <v>15.16095975161332</v>
+        <v>12.49399008609826</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>34.22250164039374</v>
+        <v>11.24516867121014</v>
       </c>
       <c r="C142">
-        <v>9.297989658999851</v>
+        <v>7.080347032582845</v>
       </c>
       <c r="D142">
-        <v>9.070674220835068</v>
+        <v>4.215812981469983</v>
       </c>
       <c r="E142">
-        <v>9.853487386069784</v>
+        <v>11.61307355409696</v>
       </c>
       <c r="F142">
-        <v>15.18038042476186</v>
+        <v>12.55575280474246</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>34.26424505469518</v>
+        <v>11.24510087115049</v>
       </c>
       <c r="C143">
-        <v>9.337841284079703</v>
+        <v>7.12584932363142</v>
       </c>
       <c r="D143">
-        <v>9.089131034234009</v>
+        <v>4.23332669126617</v>
       </c>
       <c r="E143">
-        <v>9.877751682632422</v>
+        <v>11.61605803262012</v>
       </c>
       <c r="F143">
-        <v>15.1993712347171</v>
+        <v>12.61725042726849</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>34.30521371094561</v>
+        <v>11.24493279280993</v>
       </c>
       <c r="C144">
-        <v>9.377445028487614</v>
+        <v>7.171360918346956</v>
       </c>
       <c r="D144">
-        <v>9.107335127657041</v>
+        <v>4.250738213465757</v>
       </c>
       <c r="E144">
-        <v>9.901710298403506</v>
+        <v>11.61892799796926</v>
       </c>
       <c r="F144">
-        <v>15.21793861863699</v>
+        <v>12.67848470093922</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>34.34542169272683</v>
+        <v>11.24466736400021</v>
       </c>
       <c r="C145">
-        <v>9.416802365040391</v>
+        <v>7.216880513296486</v>
       </c>
       <c r="D145">
-        <v>9.125290904382608</v>
+        <v>4.268047554442507</v>
       </c>
       <c r="E145">
-        <v>9.925367416810367</v>
+        <v>11.62168681575326</v>
       </c>
       <c r="F145">
-        <v>15.23608887931812</v>
+        <v>12.73945737159841</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>34.38488279628086</v>
+        <v>11.24430744526657</v>
       </c>
       <c r="C146">
-        <v>9.455914767834624</v>
+        <v>7.262406844907878</v>
       </c>
       <c r="D146">
-        <v>9.143002686149302</v>
+        <v>4.285254750648365</v>
       </c>
       <c r="E146">
-        <v>9.948727162196731</v>
+        <v>11.62433775216486</v>
       </c>
       <c r="F146">
-        <v>15.25382830590963</v>
+        <v>12.80017017409559</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>34.42361050850834</v>
+        <v>11.2438558169698</v>
       </c>
       <c r="C147">
-        <v>9.494783714594222</v>
+        <v>7.307938689154795</v>
       </c>
       <c r="D147">
-        <v>9.160474717633344</v>
+        <v>4.302359869060421</v>
       </c>
       <c r="E147">
-        <v>9.971793601295813</v>
+        <v>11.62688396433012</v>
       </c>
       <c r="F147">
-        <v>15.27116305309867</v>
+        <v>12.86062483688186</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>34.46161805949223</v>
+        <v>11.24331517111764</v>
       </c>
       <c r="C148">
-        <v>9.533410683709214</v>
+        <v>7.35347485995309</v>
       </c>
       <c r="D148">
-        <v>9.177711168611069</v>
+        <v>4.319363008127317</v>
       </c>
       <c r="E148">
-        <v>9.994570746079804</v>
+        <v>11.62932851561866</v>
       </c>
       <c r="F148">
-        <v>15.28809918016017</v>
+        <v>12.92082308222859</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>34.49891843696182</v>
+        <v>11.24268809554479</v>
       </c>
       <c r="C149">
-        <v>9.571797154247884</v>
+        <v>7.399014208252059</v>
       </c>
       <c r="D149">
-        <v>9.194716133226704</v>
+        <v>4.336264289841586</v>
       </c>
       <c r="E149">
-        <v>10.01706254866764</v>
+        <v>11.63167437933036</v>
       </c>
       <c r="F149">
-        <v>15.30464263346092</v>
+        <v>12.98076662543986</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>34.5355243625605</v>
+        <v>11.24197712736417</v>
       </c>
       <c r="C150">
-        <v>9.6099446086792</v>
+        <v>7.444555621492839</v>
       </c>
       <c r="D150">
-        <v>9.211493629702751</v>
+        <v>4.353063864927457</v>
       </c>
       <c r="E150">
-        <v>10.03927290623434</v>
+        <v>11.63392443943172</v>
       </c>
       <c r="F150">
-        <v>15.32079925588809</v>
+        <v>13.04045717249107</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>34.5714482743306</v>
+        <v>11.24118472011141</v>
       </c>
       <c r="C151">
-        <v>9.647854525342686</v>
+        <v>7.490098021717057</v>
       </c>
       <c r="D151">
-        <v>9.228047605431252</v>
+        <v>4.369761906339432</v>
       </c>
       <c r="E151">
-        <v>10.06120566168828</v>
+        <v>11.63608146888114</v>
       </c>
       <c r="F151">
-        <v>15.33657483203976</v>
+        <v>13.0998964218473</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>34.60670237489438</v>
+        <v>11.24031325048655</v>
       </c>
       <c r="C152">
-        <v>9.685528382031022</v>
+        <v>7.53564036561551</v>
       </c>
       <c r="D152">
-        <v>9.24438193746243</v>
+        <v>4.38635860937129</v>
       </c>
       <c r="E152">
-        <v>10.08286460375626</v>
+        <v>11.63814817787966</v>
       </c>
       <c r="F152">
-        <v>15.35197504054667</v>
+        <v>13.1590860668765</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>34.64129864545168</v>
+        <v>11.23936501615986</v>
       </c>
       <c r="C153">
-        <v>9.722967654164222</v>
+        <v>7.581181642820568</v>
       </c>
       <c r="D153">
-        <v>9.260500432961301</v>
+        <v>4.40285419261989</v>
       </c>
       <c r="E153">
-        <v>10.10425346632895</v>
+        <v>11.6401271970789</v>
       </c>
       <c r="F153">
-        <v>15.3670054708934</v>
+        <v>13.21802778904908</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>34.67524882291128</v>
+        <v>11.23834226068403</v>
       </c>
       <c r="C154">
-        <v>9.760173820203171</v>
+        <v>7.62672087519203</v>
       </c>
       <c r="D154">
-        <v>9.276406827367865</v>
+        <v>4.419248891833645</v>
       </c>
       <c r="E154">
-        <v>10.12537593074122</v>
+        <v>11.64202107920131</v>
       </c>
       <c r="F154">
-        <v>15.38167162379347</v>
+        <v>13.27672326219914</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>34.7085643872791</v>
+        <v>11.23724715763845</v>
       </c>
       <c r="C155">
-        <v>9.797148360353837</v>
+        <v>7.672257116397097</v>
       </c>
       <c r="D155">
-        <v>9.292104792050869</v>
+        <v>4.435542963825674</v>
       </c>
       <c r="E155">
-        <v>10.14623562613269</v>
+        <v>11.64383225482107</v>
       </c>
       <c r="F155">
-        <v>15.39597891390857</v>
+        <v>13.33517415335377</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>34.74125660152806</v>
+        <v>11.23608180858184</v>
       </c>
       <c r="C156">
-        <v>9.833892739353214</v>
+        <v>7.717789450026324</v>
       </c>
       <c r="D156">
-        <v>9.307597932473367</v>
+        <v>4.451736681724037</v>
       </c>
       <c r="E156">
-        <v>10.16683612991413</v>
+        <v>11.64556312851736</v>
       </c>
       <c r="F156">
-        <v>15.4099326732706</v>
+        <v>13.39338212017951</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>34.77333652429426</v>
+        <v>11.23484825549072</v>
       </c>
       <c r="C157">
-        <v>9.870408422505399</v>
+        <v>7.763316989866671</v>
       </c>
       <c r="D157">
-        <v>9.322889789443378</v>
+        <v>4.46783033484181</v>
       </c>
       <c r="E157">
-        <v>10.18718096861043</v>
+        <v>11.64721602454762</v>
       </c>
       <c r="F157">
-        <v>15.42353815053483</v>
+        <v>13.4513488103861</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>34.80481499106475</v>
+        <v>11.23354848736926</v>
       </c>
       <c r="C158">
-        <v>9.906696870059303</v>
+        <v>7.808838878174254</v>
       </c>
       <c r="D158">
-        <v>9.337983835129993</v>
+        <v>4.483824229560555</v>
       </c>
       <c r="E158">
-        <v>10.20727361833846</v>
+        <v>11.64879319800706</v>
       </c>
       <c r="F158">
-        <v>15.43680051342724</v>
+        <v>13.50907586364497</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>34.8357026047543</v>
+        <v>11.23218443391918</v>
       </c>
       <c r="C159">
-        <v>9.942759559411428</v>
+        <v>7.854354285153593</v>
       </c>
       <c r="D159">
-        <v>9.352883485087922</v>
+        <v>4.499718684604123</v>
       </c>
       <c r="E159">
-        <v>10.22711750512789</v>
+        <v>11.65029679502789</v>
       </c>
       <c r="F159">
-        <v>15.44972484047352</v>
+        <v>13.5665649123711</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>34.86600976839011</v>
+        <v>11.23075794941752</v>
       </c>
       <c r="C160">
-        <v>9.978597944023441</v>
+        <v>7.899862408595257</v>
       </c>
       <c r="D160">
-        <v>9.367592092401681</v>
+        <v>4.515514033982551</v>
       </c>
       <c r="E160">
-        <v>10.24671600675829</v>
+        <v>11.65172894444798</v>
       </c>
       <c r="F160">
-        <v>15.46231613600193</v>
+        <v>13.62381757753619</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>34.89574669653872</v>
+        <v>11.22927085360976</v>
       </c>
       <c r="C161">
-        <v>10.01421347237132</v>
+        <v>7.945362472099671</v>
       </c>
       <c r="D161">
-        <v>9.382112950143561</v>
+        <v>4.531210623513764</v>
       </c>
       <c r="E161">
-        <v>10.26607245252705</v>
+        <v>11.65309169717653</v>
       </c>
       <c r="F161">
-        <v>15.47457933650383</v>
+        <v>13.68083547163118</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>34.92492340021406</v>
+        <v>11.22772490969607</v>
       </c>
       <c r="C162">
-        <v>10.04960759050731</v>
+        <v>7.990853725476248</v>
       </c>
       <c r="D162">
-        <v>9.396449286918006</v>
+        <v>4.546808810573493</v>
       </c>
       <c r="E162">
-        <v>10.28519012371387</v>
+        <v>11.65438704286719</v>
       </c>
       <c r="F162">
-        <v>15.48651929916862</v>
+        <v>13.73762019922303</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>34.95354967775145</v>
+        <v>11.2261218274754</v>
       </c>
       <c r="C163">
-        <v>10.08478174216914</v>
+        <v>8.036335443055512</v>
       </c>
       <c r="D163">
-        <v>9.410604280132873</v>
+        <v>4.562308964885246</v>
       </c>
       <c r="E163">
-        <v>10.30407225475611</v>
+        <v>11.65561688926464</v>
       </c>
       <c r="F163">
-        <v>15.49814080839413</v>
+        <v>13.79417335448088</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>34.98163514410185</v>
+        <v>11.22446325541554</v>
       </c>
       <c r="C164">
-        <v>10.1197373826459</v>
+        <v>8.081806923343844</v>
       </c>
       <c r="D164">
-        <v>9.424581048490186</v>
+        <v>4.577711464885161</v>
       </c>
       <c r="E164">
-        <v>10.32272203401609</v>
+        <v>11.6567831137421</v>
       </c>
       <c r="F164">
-        <v>15.50944857748472</v>
+        <v>13.85049652232068</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>35.00918924168899</v>
+        <v>11.22275080977777</v>
       </c>
       <c r="C165">
-        <v>10.15447593716449</v>
+        <v>8.127267488682964</v>
       </c>
       <c r="D165">
-        <v>9.438382654779188</v>
+        <v>4.593016701081437</v>
       </c>
       <c r="E165">
-        <v>10.34114260409042</v>
+        <v>11.65788752960024</v>
       </c>
       <c r="F165">
-        <v>15.52044725034937</v>
+        <v>13.90659127875895</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>35.03622122649939</v>
+        <v>11.22098605568628</v>
       </c>
       <c r="C166">
-        <v>10.18899883427468</v>
+        <v>8.172716483634888</v>
       </c>
       <c r="D166">
-        <v>9.452012103263828</v>
+        <v>4.608225071399787</v>
       </c>
       <c r="E166">
-        <v>10.35933706204051</v>
+        <v>11.65893189588533</v>
       </c>
       <c r="F166">
-        <v>15.5311414031998</v>
+        <v>13.96245919073319</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>35.06274015887534</v>
+        <v>11.21917050864122</v>
       </c>
       <c r="C167">
-        <v>10.22330749644443</v>
+        <v>8.218153275440169</v>
       </c>
       <c r="D167">
-        <v>9.465472349657393</v>
+        <v>4.623336980945891</v>
       </c>
       <c r="E167">
-        <v>10.37730846115461</v>
+        <v>11.65991791060351</v>
       </c>
       <c r="F167">
-        <v>15.54153547459735</v>
+        <v>14.01810181497641</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>35.08875493101096</v>
+        <v>11.217305638012</v>
       </c>
       <c r="C168">
-        <v>10.25740334627548</v>
+        <v>8.263577252408513</v>
       </c>
       <c r="D168">
-        <v>9.478766295612933</v>
+        <v>4.638352841732199</v>
       </c>
       <c r="E168">
-        <v>10.39505981083454</v>
+        <v>11.66084723402409</v>
       </c>
       <c r="F168">
-        <v>15.55163391239651</v>
+        <v>14.07352069900235</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>35.1142742775676</v>
+        <v>11.21539287854142</v>
       </c>
       <c r="C169">
-        <v>10.29128779951314</v>
+        <v>8.308987823723404</v>
       </c>
       <c r="D169">
-        <v>9.491896790510371</v>
+        <v>4.653273081720391</v>
       </c>
       <c r="E169">
-        <v>10.41259407713578</v>
+        <v>11.66172147476093</v>
       </c>
       <c r="F169">
-        <v>15.56144108876054</v>
+        <v>14.12871738175164</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>35.13930676184413</v>
+        <v>11.21343362163702</v>
       </c>
       <c r="C170">
-        <v>10.32496226000863</v>
+        <v>8.354384419105523</v>
       </c>
       <c r="D170">
-        <v>9.504866629722084</v>
+        <v>4.668098124633057</v>
       </c>
       <c r="E170">
-        <v>10.42991418331949</v>
+        <v>11.66254219207497</v>
       </c>
       <c r="F170">
-        <v>15.57096130066746</v>
+        <v>14.18369339161978</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>35.16386076747192</v>
+        <v>11.21142921208507</v>
       </c>
       <c r="C171">
-        <v>10.35842812813293</v>
+        <v>8.399766487381092</v>
       </c>
       <c r="D171">
-        <v>9.517678563774131</v>
+        <v>4.682828402216433</v>
       </c>
       <c r="E171">
-        <v>10.44702301139566</v>
+        <v>11.66331088591529</v>
       </c>
       <c r="F171">
-        <v>15.58019878145591</v>
+        <v>14.23845024774502</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>35.18794452353167</v>
+        <v>11.20938096125376</v>
       </c>
       <c r="C172">
-        <v>10.3916867976214</v>
+        <v>8.44513349695527</v>
       </c>
       <c r="D172">
-        <v>9.530335292984738</v>
+        <v>4.69746435199584</v>
       </c>
       <c r="E172">
-        <v>10.46392340196133</v>
+        <v>11.66402903174617</v>
       </c>
       <c r="F172">
-        <v>15.58915769798344</v>
+        <v>14.29298946033979</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>35.21156611472962</v>
+        <v>11.2072901445562</v>
       </c>
       <c r="C173">
-        <v>10.42473966088282</v>
+        <v>8.49048493430506</v>
       </c>
       <c r="D173">
-        <v>9.542839468616839</v>
+        <v>4.712006427920759</v>
       </c>
       <c r="E173">
-        <v>10.48061815404906</v>
+        <v>11.66469805636321</v>
       </c>
       <c r="F173">
-        <v>15.59784210197056</v>
+        <v>14.34731252995685</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>35.23473346821899</v>
+        <v>11.20515800032253</v>
       </c>
       <c r="C174">
-        <v>10.45758809736414</v>
+        <v>8.535820303906213</v>
       </c>
       <c r="D174">
-        <v>9.555193692284218</v>
+        <v>4.726455073581247</v>
       </c>
       <c r="E174">
-        <v>10.49711002724833</v>
+        <v>11.66531934198764</v>
       </c>
       <c r="F174">
-        <v>15.60625605970869</v>
+        <v>14.40142094728079</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>35.25745434677399</v>
+        <v>11.20298572358923</v>
       </c>
       <c r="C175">
-        <v>10.49023348152166</v>
+        <v>8.58113912789374</v>
       </c>
       <c r="D175">
-        <v>9.567400523993113</v>
+        <v>4.740810740963096</v>
       </c>
       <c r="E175">
-        <v>10.51340174179872</v>
+        <v>11.66589422133304</v>
       </c>
       <c r="F175">
-        <v>15.61440354770134</v>
+        <v>14.4553161937935</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>35.27973637080041</v>
+        <v>11.20077448549718</v>
       </c>
       <c r="C176">
-        <v>10.5226771807851</v>
+        <v>8.626440944816094</v>
       </c>
       <c r="D176">
-        <v>9.579462477081314</v>
+        <v>4.755073887894011</v>
       </c>
       <c r="E176">
-        <v>10.52949597879002</v>
+        <v>11.66642400325054</v>
       </c>
       <c r="F176">
-        <v>15.62228848277887</v>
+        <v>14.50899974203751</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>35.30158702779284</v>
+        <v>11.19852542164026</v>
       </c>
       <c r="C177">
-        <v>10.55492055670114</v>
+        <v>8.671725310096408</v>
       </c>
       <c r="D177">
-        <v>9.591382019311267</v>
+        <v>4.769244982303199</v>
       </c>
       <c r="E177">
-        <v>10.54539537987234</v>
+        <v>11.66690995424061</v>
       </c>
       <c r="F177">
-        <v>15.62991472324282</v>
+        <v>14.56247305441807</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>35.3230136605745</v>
+        <v>11.19623963376005</v>
       </c>
       <c r="C178">
-        <v>10.58696496574779</v>
+        <v>8.716991794640077</v>
       </c>
       <c r="D178">
-        <v>9.603161573762049</v>
+        <v>4.783324485157038</v>
       </c>
       <c r="E178">
-        <v>10.56110255023966</v>
+        <v>11.66735330043443</v>
       </c>
       <c r="F178">
-        <v>15.63728606367942</v>
+        <v>14.61573758410772</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>35.34402346162819</v>
+        <v>11.1939181885106</v>
       </c>
       <c r="C179">
-        <v>10.61881175287594</v>
+        <v>8.762239984857674</v>
       </c>
       <c r="D179">
-        <v>9.614803523594258</v>
+        <v>4.797312863613573</v>
       </c>
       <c r="E179">
-        <v>10.57662005746176</v>
+        <v>11.66775522657426</v>
       </c>
       <c r="F179">
-        <v>15.64440623347617</v>
+        <v>14.66879477535389</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>35.36462349223314</v>
+        <v>11.19156212993828</v>
       </c>
       <c r="C180">
-        <v>10.65046225716862</v>
+        <v>8.807469482321862</v>
       </c>
       <c r="D180">
-        <v>9.6263102092582</v>
+        <v>4.811210589567077</v>
       </c>
       <c r="E180">
-        <v>10.59195043185262</v>
+        <v>11.66811689440678</v>
       </c>
       <c r="F180">
-        <v>15.65127892544899</v>
+        <v>14.72164606264076</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>35.38482069119019</v>
+        <v>11.18917247099319</v>
       </c>
       <c r="C181">
-        <v>10.68191781003146</v>
+        <v>8.852679902698343</v>
       </c>
       <c r="D181">
-        <v>9.637683928131056</v>
+        <v>4.825018138852651</v>
       </c>
       <c r="E181">
-        <v>10.60709616740362</v>
+        <v>11.66843942868732</v>
       </c>
       <c r="F181">
-        <v>15.65790776922662</v>
+        <v>14.77429287112399</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>35.40462186448329</v>
+        <v>11.18675019212741</v>
       </c>
       <c r="C182">
-        <v>10.71317973975474</v>
+        <v>8.897870876179013</v>
       </c>
       <c r="D182">
-        <v>9.648926936803996</v>
+        <v>4.83873598533682</v>
       </c>
       <c r="E182">
-        <v>10.62205972321104</v>
+        <v>11.66872391824338</v>
       </c>
       <c r="F182">
-        <v>15.66429634059963</v>
+        <v>14.82673661680773</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>35.42403368021507</v>
+        <v>11.18429624766878</v>
       </c>
       <c r="C183">
-        <v>10.74424936406263</v>
+        <v>8.943042046208609</v>
       </c>
       <c r="D183">
-        <v>9.660041454926585</v>
+        <v>4.852364606131532</v>
       </c>
       <c r="E183">
-        <v>10.63684352305476</v>
+        <v>11.66897141795744</v>
       </c>
       <c r="F183">
-        <v>15.67044816258954</v>
+        <v>14.87897870653712</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>35.44306268561948</v>
+        <v>11.18181156861878</v>
       </c>
       <c r="C184">
-        <v>10.77512799183211</v>
+        <v>8.988193069580237</v>
       </c>
       <c r="D184">
-        <v>9.671029662421766</v>
+        <v>4.865904481424553</v>
       </c>
       <c r="E184">
-        <v>10.65144995496559</v>
+        <v>11.66918295968336</v>
       </c>
       <c r="F184">
-        <v>15.67636669815141</v>
+        <v>14.93102053764835</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>35.46171531523408</v>
+        <v>11.17929705928005</v>
       </c>
       <c r="C185">
-        <v>10.80581692526666</v>
+        <v>9.033323616091133</v>
       </c>
       <c r="D185">
-        <v>9.681893698838749</v>
+        <v>4.879356092325937</v>
       </c>
       <c r="E185">
-        <v>10.66588137404486</v>
+        <v>11.66935954357091</v>
       </c>
       <c r="F185">
-        <v>15.68205536232631</v>
+        <v>14.98286349836889</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>35.47999788149806</v>
+        <v>11.17675359274737</v>
       </c>
       <c r="C186">
-        <v>10.83631745920267</v>
+        <v>9.07843336763516</v>
       </c>
       <c r="D186">
-        <v>9.69263566690125</v>
+        <v>4.892719919797977</v>
       </c>
       <c r="E186">
-        <v>10.68014010163211</v>
+        <v>11.66950213738145</v>
       </c>
       <c r="F186">
-        <v>15.68751752643965</v>
+        <v>15.03450896835805</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>35.49791657008223</v>
+        <v>11.1741820244764</v>
       </c>
       <c r="C187">
-        <v>10.86663088547665</v>
+        <v>9.123522018599678</v>
       </c>
       <c r="D187">
-        <v>9.703257634328263</v>
+        <v>4.905996446004933</v>
       </c>
       <c r="E187">
-        <v>10.69422842573164</v>
+        <v>11.66961168060518</v>
       </c>
       <c r="F187">
-        <v>15.69275650876779</v>
+        <v>15.08595831736992</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>35.51547745529029</v>
+        <v>11.17158318510173</v>
       </c>
       <c r="C188">
-        <v>10.89675848199649</v>
+        <v>9.168589274710142</v>
       </c>
       <c r="D188">
-        <v>9.71376163221073</v>
+        <v>4.919186156235003</v>
       </c>
       <c r="E188">
-        <v>10.70814860099301</v>
+        <v>11.66968909123551</v>
       </c>
       <c r="F188">
-        <v>15.69777557943421</v>
+        <v>15.13721290624679</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>35.53268650781031</v>
+        <v>11.16895788173232</v>
       </c>
       <c r="C189">
-        <v>10.9267015211535</v>
+        <v>9.213634853178366</v>
       </c>
       <c r="D189">
-        <v>9.724149653636637</v>
+        <v>4.932289534301326</v>
       </c>
       <c r="E189">
-        <v>10.72190285110133</v>
+        <v>11.66973525968164</v>
       </c>
       <c r="F189">
-        <v>15.70257796142692</v>
+        <v>15.18827408669553</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>35.54954958591073</v>
+        <v>11.16630689549458</v>
       </c>
       <c r="C190">
-        <v>10.95646126752537</v>
+        <v>9.258658482360815</v>
       </c>
       <c r="D190">
-        <v>9.734423658577198</v>
+        <v>4.94530706397111</v>
       </c>
       <c r="E190">
-        <v>10.73549336781523</v>
+        <v>11.66975104678402</v>
       </c>
       <c r="F190">
-        <v>15.70716680879474</v>
+        <v>15.23914320130462</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>35.56607243125364</v>
+        <v>11.16363099142911</v>
       </c>
       <c r="C191">
-        <v>10.9860389792315</v>
+        <v>9.303659900997243</v>
       </c>
       <c r="D191">
-        <v>9.744585573829868</v>
+        <v>4.958239229270137</v>
       </c>
       <c r="E191">
-        <v>10.7489223109997</v>
+        <v>11.66973729001292</v>
       </c>
       <c r="F191">
-        <v>15.71154525406288</v>
+        <v>15.28982158531218</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>35.58226068279711</v>
+        <v>11.16093091230326</v>
       </c>
       <c r="C192">
-        <v>11.01543590705559</v>
+        <v>9.348638858556024</v>
       </c>
       <c r="D192">
-        <v>9.754637292384958</v>
+        <v>4.971086517830277</v>
       </c>
       <c r="E192">
-        <v>10.76219181006921</v>
+        <v>11.66969480700097</v>
       </c>
       <c r="F192">
-        <v>15.71571638084903</v>
+        <v>15.34031056317028</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>35.59811988412329</v>
+        <v>11.15820737887484</v>
       </c>
       <c r="C193">
-        <v>11.04465329202388</v>
+        <v>9.393595114216126</v>
       </c>
       <c r="D193">
-        <v>9.764580671669471</v>
+        <v>4.98384941312311</v>
       </c>
       <c r="E193">
-        <v>10.7753039646888</v>
+        <v>11.66962439122166</v>
       </c>
       <c r="F193">
-        <v>15.71968322578955</v>
+        <v>15.39061145067805</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>35.61365547523069</v>
+        <v>11.15546109148233</v>
       </c>
       <c r="C194">
-        <v>11.07369236824275</v>
+        <v>9.438528437027701</v>
       </c>
       <c r="D194">
-        <v>9.774417539301496</v>
+        <v>4.996528399424331</v>
       </c>
       <c r="E194">
-        <v>10.78826084455628</v>
+        <v>11.66952680899447</v>
       </c>
       <c r="F194">
-        <v>15.72344878216661</v>
+        <v>15.44072555485786</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>35.62887278891029</v>
+        <v>11.15269273453591</v>
       </c>
       <c r="C195">
-        <v>11.10255436196713</v>
+        <v>9.483438605588807</v>
       </c>
       <c r="D195">
-        <v>9.784149691378719</v>
+        <v>5.009123960769506</v>
       </c>
       <c r="E195">
-        <v>10.80106448880037</v>
+        <v>11.66940280763179</v>
       </c>
       <c r="F195">
-        <v>15.72701599770445</v>
+        <v>15.49065417381809</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>35.64377706314752</v>
+        <v>11.14990297316044</v>
       </c>
       <c r="C196">
-        <v>11.13124049331308</v>
+        <v>9.528325407410646</v>
       </c>
       <c r="D196">
-        <v>9.793778892879047</v>
+        <v>5.021636583142584</v>
       </c>
       <c r="E196">
-        <v>10.81371690905519</v>
+        <v>11.66925311588708</v>
       </c>
       <c r="F196">
-        <v>15.73038774744522</v>
+        <v>15.54039859872207</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>35.65837344797885</v>
+        <v>11.14709245130316</v>
       </c>
       <c r="C197">
-        <v>11.15975197288902</v>
+        <v>9.573188639205481</v>
       </c>
       <c r="D197">
-        <v>9.803306875202958</v>
+        <v>5.03406674884575</v>
       </c>
       <c r="E197">
-        <v>10.82622008810257</v>
+        <v>11.66907844133745</v>
       </c>
       <c r="F197">
-        <v>15.7335669091244</v>
+        <v>15.58996011092355</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>35.67266699798538</v>
+        <v>11.14426179804515</v>
       </c>
       <c r="C198">
-        <v>11.18809000376728</v>
+        <v>9.618028106010835</v>
       </c>
       <c r="D198">
-        <v>9.81273534322589</v>
+        <v>5.046414940399738</v>
       </c>
       <c r="E198">
-        <v>10.83857598033067</v>
+        <v>11.66887946688164</v>
       </c>
       <c r="F198">
-        <v>15.73655630227316</v>
+        <v>15.63933998222264</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>35.68666266916662</v>
+        <v>11.14141162613896</v>
       </c>
       <c r="C199">
-        <v>11.21625578131624</v>
+        <v>9.662843621337689</v>
       </c>
       <c r="D199">
-        <v>9.822065971813521</v>
+        <v>5.058681639842436</v>
       </c>
       <c r="E199">
-        <v>10.85078651202793</v>
+        <v>11.66865686004039</v>
       </c>
       <c r="F199">
-        <v>15.73935870602009</v>
+        <v>15.68853947641085</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>35.70036532995579</v>
+        <v>11.13854253151066</v>
       </c>
       <c r="C200">
-        <v>11.24425049340641</v>
+        <v>9.70763500687492</v>
       </c>
       <c r="D200">
-        <v>9.831300407059054</v>
+        <v>5.070867329396478</v>
       </c>
       <c r="E200">
-        <v>10.86285358318819</v>
+        <v>11.66841127073046</v>
       </c>
       <c r="F200">
-        <v>15.74197685989401</v>
+        <v>15.73755984868208</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>35.71377976760573</v>
+        <v>11.1356550905866</v>
       </c>
       <c r="C201">
-        <v>11.2720753211681</v>
+        <v>9.752402091961571</v>
       </c>
       <c r="D201">
-        <v>9.840440263833106</v>
+        <v>5.082972488594302</v>
       </c>
       <c r="E201">
-        <v>10.87477906674355</v>
+        <v>11.66814333040185</v>
       </c>
       <c r="F201">
-        <v>15.74441345632408</v>
+        <v>15.78640234652613</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>35.72691068137853</v>
+        <v>11.13274986873504</v>
       </c>
       <c r="C202">
-        <v>11.29973143623533</v>
+        <v>9.797144713823762</v>
       </c>
       <c r="D202">
-        <v>9.849487132833843</v>
+        <v>5.094997596393906</v>
       </c>
       <c r="E202">
-        <v>10.88656480835196</v>
+        <v>11.667853648258</v>
       </c>
       <c r="F202">
-        <v>15.74667113995865</v>
+        <v>15.83506820929471</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>35.73976267979086</v>
+        <v>11.12982741514808</v>
       </c>
       <c r="C203">
-        <v>11.32722000307284</v>
+        <v>9.841862716823941</v>
       </c>
       <c r="D203">
-        <v>9.858442576535362</v>
+        <v>5.106943131019576</v>
       </c>
       <c r="E203">
-        <v>10.89821262827157</v>
+        <v>11.66754282103914</v>
       </c>
       <c r="F203">
-        <v>15.74875254002362</v>
+        <v>15.88355866658009</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>35.75234029044923</v>
+        <v>11.12688826365914</v>
       </c>
       <c r="C204">
-        <v>11.354542178322</v>
+        <v>9.886555951260119</v>
       </c>
       <c r="D204">
-        <v>9.867308130609725</v>
+        <v>5.1188095697786</v>
       </c>
       <c r="E204">
-        <v>10.90972432128914</v>
+        <v>11.66721142884186</v>
       </c>
       <c r="F204">
-        <v>15.750660238287</v>
+        <v>15.93187494028993</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>35.7646479660183</v>
+        <v>11.12393293238498</v>
       </c>
       <c r="C205">
-        <v>11.38169911191208</v>
+        <v>9.931224274705235</v>
       </c>
       <c r="D205">
-        <v>9.876085302036058</v>
+        <v>5.130597387722823</v>
       </c>
       <c r="E205">
-        <v>10.92110165674636</v>
+        <v>11.66686003569946</v>
       </c>
       <c r="F205">
-        <v>15.75239677966807</v>
+        <v>15.98001824405959</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>35.77669007799357</v>
+        <v>11.12096192857355</v>
       </c>
       <c r="C206">
-        <v>11.40869194562335</v>
+        <v>9.975867553718006</v>
       </c>
       <c r="D206">
-        <v>9.884775575232743</v>
+        <v>5.142307058768434</v>
       </c>
       <c r="E206">
-        <v>10.93234637819351</v>
+        <v>11.66648918552331</v>
       </c>
       <c r="F206">
-        <v>15.75396467294907</v>
+        <v>16.02798978343694</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>35.78847091424015</v>
+        <v>11.11797574535278</v>
       </c>
       <c r="C207">
-        <v>11.43552181286452</v>
+        <v>10.02048566176591</v>
       </c>
       <c r="D207">
-        <v>9.893380408435464</v>
+        <v>5.153939055999591</v>
       </c>
       <c r="E207">
-        <v>10.94346020584355</v>
+        <v>11.66609941226435</v>
       </c>
       <c r="F207">
-        <v>15.75536638132443</v>
+        <v>16.0757907561733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>35.79999468782943</v>
+        <v>11.11497485939265</v>
       </c>
       <c r="C208">
-        <v>11.46218983971139</v>
+        <v>10.06507847613951</v>
       </c>
       <c r="D208">
-        <v>9.901901234788991</v>
+        <v>5.165493850809441</v>
       </c>
       <c r="E208">
-        <v>10.95444483546053</v>
+        <v>11.66569123421725</v>
       </c>
       <c r="F208">
-        <v>15.75660433740117</v>
+        <v>16.12342235130961</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>35.81126554264139</v>
+        <v>11.11195973655633</v>
       </c>
       <c r="C209">
-        <v>11.48869714456239</v>
+        <v>10.10964587375324</v>
       </c>
       <c r="D209">
-        <v>9.910339461248983</v>
+        <v>5.176971912463768</v>
       </c>
       <c r="E209">
-        <v>10.96530193809195</v>
+        <v>11.66526515560721</v>
       </c>
       <c r="F209">
-        <v>15.75768094582558</v>
+        <v>16.17088575008958</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>35.82228754761461</v>
+        <v>11.10893083284043</v>
       </c>
       <c r="C210">
-        <v>11.51504483966655</v>
+        <v>10.15418775171393</v>
       </c>
       <c r="D210">
-        <v>9.918696473509542</v>
+        <v>5.188373708741725</v>
       </c>
       <c r="E210">
-        <v>10.97603316134497</v>
+        <v>11.66482166264007</v>
       </c>
       <c r="F210">
-        <v>15.75859857285333</v>
+        <v>16.21818212576825</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>35.83306469455991</v>
+        <v>11.10588859175104</v>
       </c>
       <c r="C211">
-        <v>11.54123402781265</v>
+        <v>10.19870400907587</v>
       </c>
       <c r="D211">
-        <v>9.926973633039905</v>
+        <v>5.199699706598882</v>
       </c>
       <c r="E211">
-        <v>10.98664013102538</v>
+        <v>11.66436123330749</v>
       </c>
       <c r="F211">
-        <v>15.75935955131062</v>
+        <v>16.26531264365699</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>35.84360090610669</v>
+        <v>11.1028334459705</v>
       </c>
       <c r="C212">
-        <v>11.56726580484778</v>
+        <v>10.24319455080143</v>
       </c>
       <c r="D212">
-        <v>9.935172277790263</v>
+        <v>5.210950370567752</v>
       </c>
       <c r="E212">
-        <v>10.99712444990413</v>
+        <v>11.66388433120993</v>
       </c>
       <c r="F212">
-        <v>15.75996618124562</v>
+        <v>16.31227846104676</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>35.85390004096165</v>
+        <v>11.09976581768904</v>
       </c>
       <c r="C213">
-        <v>11.59314125904357</v>
+        <v>10.28765926667691</v>
       </c>
       <c r="D213">
-        <v>9.943293721794408</v>
+        <v>5.222126163267986</v>
       </c>
       <c r="E213">
-        <v>11.00748769863602</v>
+        <v>11.663391407379</v>
       </c>
       <c r="F213">
-        <v>15.76042071821245</v>
+        <v>16.35908072756542</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>35.86396588859285</v>
+        <v>11.09668610100596</v>
       </c>
       <c r="C214">
-        <v>11.61886147146984</v>
+        <v>10.3320980806736</v>
       </c>
       <c r="D214">
-        <v>9.951339259082125</v>
+        <v>5.233227545554653</v>
       </c>
       <c r="E214">
-        <v>11.01773143617089</v>
+        <v>11.6628828971797</v>
       </c>
       <c r="F214">
-        <v>15.76072539957191</v>
+        <v>16.40572058498757</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>35.87380216731136</v>
+        <v>11.09359470369685</v>
       </c>
       <c r="C215">
-        <v>11.64442751602819</v>
+        <v>10.37651091307961</v>
       </c>
       <c r="D215">
-        <v>9.95931016124594</v>
+        <v>5.244254977384366</v>
       </c>
       <c r="E215">
-        <v>11.02785719659899</v>
+        <v>11.66235922851484</v>
       </c>
       <c r="F215">
-        <v>15.76088242859583</v>
+        <v>16.45219916735034</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>35.8834125313976</v>
+        <v>11.09049201538987</v>
       </c>
       <c r="C216">
-        <v>11.66984045839406</v>
+        <v>10.42089769033043</v>
       </c>
       <c r="D216">
-        <v>9.967207677824156</v>
+        <v>5.255208915736567</v>
       </c>
       <c r="E216">
-        <v>11.03786649565752</v>
+        <v>11.66182081653444</v>
       </c>
       <c r="F216">
-        <v>15.76089397652839</v>
+        <v>16.49851760100463</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>35.89280057602275</v>
+        <v>11.08737841664846</v>
       </c>
       <c r="C217">
-        <v>11.69510135712299</v>
+        <v>10.46525833380812</v>
       </c>
       <c r="D217">
-        <v>9.975033036587485</v>
+        <v>5.266089815933917</v>
       </c>
       <c r="E217">
-        <v>11.04776082717153</v>
+        <v>11.66126806500523</v>
       </c>
       <c r="F217">
-        <v>15.76076218440618</v>
+        <v>16.54467700490223</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>35.9019698323571</v>
+        <v>11.08425427943799</v>
       </c>
       <c r="C218">
-        <v>11.72021126335509</v>
+        <v>10.50959277551988</v>
       </c>
       <c r="D218">
-        <v>9.982787446404407</v>
+        <v>5.276898131437409</v>
       </c>
       <c r="E218">
-        <v>11.05754166376491</v>
+        <v>11.66070136416905</v>
       </c>
       <c r="F218">
-        <v>15.7604891617461</v>
+        <v>16.59067849018448</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>35.9109237658929</v>
+        <v>11.08111995862813</v>
       </c>
       <c r="C219">
-        <v>11.74517122136175</v>
+        <v>10.55390095342435</v>
       </c>
       <c r="D219">
-        <v>9.99047209538652</v>
+        <v>5.287634314811028</v>
       </c>
       <c r="E219">
-        <v>11.06721045739831</v>
+        <v>11.66012109736936</v>
       </c>
       <c r="F219">
-        <v>15.7600769738624</v>
+        <v>16.63652316050994</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>35.91966578282605</v>
+        <v>11.0779757890554</v>
       </c>
       <c r="C220">
-        <v>11.76998226766975</v>
+        <v>10.59818280562059</v>
       </c>
       <c r="D220">
-        <v>9.998088149897125</v>
+        <v>5.298298815012694</v>
       </c>
       <c r="E220">
-        <v>11.07676864006499</v>
+        <v>11.65952763666884</v>
       </c>
       <c r="F220">
-        <v>15.75952767920637</v>
+        <v>16.68221211209809</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>35.92819923465268</v>
+        <v>11.07482212377284</v>
       </c>
       <c r="C221">
-        <v>11.79464543147503</v>
+        <v>10.64243827710342</v>
       </c>
       <c r="D221">
-        <v>10.00563675665782</v>
+        <v>5.308892079389643</v>
       </c>
       <c r="E221">
-        <v>11.0862176237324</v>
+        <v>11.65892134318255</v>
       </c>
       <c r="F221">
-        <v>15.75884329910933</v>
+        <v>16.72774643375647</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>35.93652741368105</v>
+        <v>11.07165929636767</v>
       </c>
       <c r="C222">
-        <v>11.81916173478541</v>
+        <v>10.68666731645638</v>
       </c>
       <c r="D222">
-        <v>10.01311904594307</v>
+        <v>5.31941455309068</v>
       </c>
       <c r="E222">
-        <v>11.0955588011459</v>
+        <v>11.65830256485836</v>
       </c>
       <c r="F222">
-        <v>15.75802582685504</v>
+        <v>16.77312720695328</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>35.94465355155708</v>
+        <v>11.06848763267635</v>
       </c>
       <c r="C223">
-        <v>11.84353219243816</v>
+        <v>10.73086987591089</v>
       </c>
       <c r="D223">
-        <v>10.02053612838919</v>
+        <v>5.329866679008776</v>
       </c>
       <c r="E223">
-        <v>11.10479354535417</v>
+        <v>11.65767164636844</v>
       </c>
       <c r="F223">
-        <v>15.75707722822033</v>
+        <v>16.81835550584136</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>35.95258082498692</v>
+        <v>11.06530745114541</v>
       </c>
       <c r="C224">
-        <v>11.86775781248397</v>
+        <v>10.7750459124956</v>
       </c>
       <c r="D224">
-        <v>10.02788909657218</v>
+        <v>5.340248898882949</v>
       </c>
       <c r="E224">
-        <v>11.11392321059484</v>
+        <v>11.65702892151305</v>
       </c>
       <c r="F224">
-        <v>15.75599943642009</v>
+        <v>16.86343239731077</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>35.96031236003252</v>
+        <v>11.06211904764326</v>
       </c>
       <c r="C225">
-        <v>11.89183959524643</v>
+        <v>10.81919538682249</v>
       </c>
       <c r="D225">
-        <v>10.03517902545334</v>
+        <v>5.350561653758839</v>
       </c>
       <c r="E225">
-        <v>11.12294913220986</v>
+        <v>11.65637471576707</v>
       </c>
       <c r="F225">
-        <v>15.75479435283433</v>
+        <v>16.90835894105905</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>35.96785122798662</v>
+        <v>11.0589227209046</v>
       </c>
       <c r="C226">
-        <v>11.91577853413551</v>
+        <v>10.8633182619559</v>
       </c>
       <c r="D226">
-        <v>10.04240696667149</v>
+        <v>5.360805378857631</v>
       </c>
       <c r="E226">
-        <v>11.13187262730411</v>
+        <v>11.65570934667541</v>
       </c>
       <c r="F226">
-        <v>15.75346386611328</v>
+        <v>16.95313618963698</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>35.97520044029357</v>
+        <v>11.05571876821048</v>
       </c>
       <c r="C227">
-        <v>11.93957561546924</v>
+        <v>10.90741450681327</v>
       </c>
       <c r="D227">
-        <v>10.04957395405157</v>
+        <v>5.370980508579116</v>
       </c>
       <c r="E227">
-        <v>11.14069499497532</v>
+        <v>11.65503311971164</v>
       </c>
       <c r="F227">
-        <v>15.75200983272419</v>
+        <v>16.99776518853198</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>35.9823629594053</v>
+        <v>11.05250747487796</v>
       </c>
       <c r="C228">
-        <v>11.96323181874927</v>
+        <v>10.95148409244527</v>
       </c>
       <c r="D228">
-        <v>10.05668101367751</v>
+        <v>5.381087474953296</v>
       </c>
       <c r="E228">
-        <v>11.1494175161824</v>
+        <v>11.65434632518538</v>
       </c>
       <c r="F228">
-        <v>15.75043408353078</v>
+        <v>17.04224697620759</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>35.98934170420527</v>
+        <v>11.04928911943235</v>
       </c>
       <c r="C229">
-        <v>11.98674811646926</v>
+        <v>10.99552699198504</v>
       </c>
       <c r="D229">
-        <v>10.06372915083324</v>
+        <v>5.39112670759267</v>
       </c>
       <c r="E229">
-        <v>11.15804145377653</v>
+        <v>11.65364926212303</v>
       </c>
       <c r="F229">
-        <v>15.74873842427625</v>
+        <v>17.08658258408888</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>35.99613954178724</v>
+        <v>11.04606397362309</v>
       </c>
       <c r="C230">
-        <v>12.01012547391439</v>
+        <v>11.03954318456445</v>
       </c>
       <c r="D230">
-        <v>10.07071935487102</v>
+        <v>5.401098636610877</v>
       </c>
       <c r="E230">
-        <v>11.16656805408871</v>
+        <v>11.65294221582359</v>
       </c>
       <c r="F230">
-        <v>15.74692462783681</v>
+        <v>17.13077303669428</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>36.00275929196865</v>
+        <v>11.04283228978194</v>
       </c>
       <c r="C231">
-        <v>12.03336484956098</v>
+        <v>11.0835326502849</v>
       </c>
       <c r="D231">
-        <v>10.07765259962847</v>
+        <v>5.411003689324659</v>
       </c>
       <c r="E231">
-        <v>11.17499854613086</v>
+        <v>11.65222546494464</v>
       </c>
       <c r="F231">
-        <v>15.74499444690076</v>
+        <v>17.17481935166434</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>36.00920372854693</v>
+        <v>11.03959433121301</v>
       </c>
       <c r="C232">
-        <v>12.05646719499128</v>
+        <v>11.12749537205223</v>
       </c>
       <c r="D232">
-        <v>10.08452983457962</v>
+        <v>5.420842287515351</v>
       </c>
       <c r="E232">
-        <v>11.18333414111353</v>
+        <v>11.65149928186011</v>
       </c>
       <c r="F232">
-        <v>15.74294961457525</v>
+        <v>17.21872253974275</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>36.01547555657793</v>
+        <v>11.03635034850055</v>
       </c>
       <c r="C233">
-        <v>12.07943345530256</v>
+        <v>11.17143133766615</v>
       </c>
       <c r="D233">
-        <v>10.09135199053407</v>
+        <v>5.430614852334679</v>
       </c>
       <c r="E233">
-        <v>11.19157603460519</v>
+        <v>11.65076392387046</v>
       </c>
       <c r="F233">
-        <v>15.74079183697746</v>
+        <v>17.2624836046747</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>36.02157744647014</v>
+        <v>11.03310058618126</v>
       </c>
       <c r="C234">
-        <v>12.10226456838733</v>
+        <v>11.21534053548594</v>
       </c>
       <c r="D234">
-        <v>10.0981200002895</v>
+        <v>5.440321802557025</v>
       </c>
       <c r="E234">
-        <v>11.19972540551313</v>
+        <v>11.6500196324707</v>
       </c>
       <c r="F234">
-        <v>15.73852279685678</v>
+        <v>17.306103543829</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>36.02751204251827</v>
+        <v>11.02984528297191</v>
       </c>
       <c r="C235">
-        <v>12.12496146549055</v>
+        <v>11.25922295749736</v>
       </c>
       <c r="D235">
-        <v>10.10483477379592</v>
+        <v>5.449963554550934</v>
       </c>
       <c r="E235">
-        <v>11.20778341637645</v>
+        <v>11.64926666792574</v>
       </c>
       <c r="F235">
-        <v>15.73614415403092</v>
+        <v>17.34958334774776</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>36.03328193555524</v>
+        <v>11.02658467055887</v>
       </c>
       <c r="C236">
-        <v>12.14752507114679</v>
+        <v>11.30307859926699</v>
       </c>
       <c r="D236">
-        <v>10.11149720660909</v>
+        <v>5.459540525648667</v>
       </c>
       <c r="E236">
-        <v>11.21575121381476</v>
+        <v>11.64850527351018</v>
       </c>
       <c r="F236">
-        <v>15.7336575356469</v>
+        <v>17.3929240003387</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>36.03888967497175</v>
+        <v>11.02331897348854</v>
       </c>
       <c r="C237">
-        <v>12.16995630326888</v>
+        <v>11.34690745674561</v>
       </c>
       <c r="D237">
-        <v>10.11810818024307</v>
+        <v>5.469053128012097</v>
       </c>
       <c r="E237">
-        <v>11.22362992899357</v>
+        <v>11.64773568676432</v>
       </c>
       <c r="F237">
-        <v>15.73106455811599</v>
+        <v>17.43612647891769</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>36.04433776988046</v>
+        <v>11.02004841499213</v>
       </c>
       <c r="C238">
-        <v>12.19225607324973</v>
+        <v>11.39070953016356</v>
       </c>
       <c r="D238">
-        <v>10.12466855548279</v>
+        <v>5.478501770963816</v>
       </c>
       <c r="E238">
-        <v>11.23142067752476</v>
+        <v>11.64695813976719</v>
       </c>
       <c r="F238">
-        <v>15.72836681302932</v>
+        <v>17.47919175402807</v>
       </c>
     </row>
   </sheetData>
